--- a/capiq_data/in_process_data/IQ36478.xlsx
+++ b/capiq_data/in_process_data/IQ36478.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC318E5E-54B7-4717-AC73-2494823BE01C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962A97B5-C878-4D68-B33A-12601C974162}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5f882050-aebb-4c2f-82ac-9357ebdcfc9c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c79dda07-7781-47b4-950c-5a777c6b9936"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12000</t>
+  </si>
+  <si>
+    <t>FQ22000</t>
+  </si>
+  <si>
+    <t>FQ32000</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
   </si>
   <si>
     <t>FQ12010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>69.8</v>
+        <v>130.13900000000001</v>
       </c>
       <c r="D2">
-        <v>856.5</v>
+        <v>177.23400000000001</v>
       </c>
       <c r="E2">
-        <v>543.79999999999995</v>
+        <v>145.25399999999999</v>
       </c>
       <c r="F2">
-        <v>351.8</v>
+        <v>115.26900000000001</v>
       </c>
       <c r="G2">
-        <v>1769.7</v>
+        <v>627.50800000000004</v>
       </c>
       <c r="H2">
-        <v>5890.2</v>
+        <v>1751.479</v>
       </c>
       <c r="I2">
-        <v>532.1</v>
+        <v>55.869</v>
       </c>
       <c r="J2">
-        <v>1155.5</v>
+        <v>149.346</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,81 +889,81 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-223.4</v>
+        <v>-0.38</v>
       </c>
       <c r="N2">
-        <v>880.5</v>
+        <v>154.709</v>
       </c>
       <c r="O2">
-        <v>2796.8</v>
+        <v>460.70499999999998</v>
       </c>
       <c r="P2">
-        <v>1240.5</v>
+        <v>150.90100000000001</v>
       </c>
       <c r="Q2">
-        <v>-32.200000000000003</v>
+        <v>201.34700000000001</v>
       </c>
       <c r="R2">
-        <v>40268</v>
+        <v>36616</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>3093.4</v>
+        <v>1290.7739999999999</v>
       </c>
       <c r="U2">
-        <v>169.2</v>
+        <v>305.42200000000003</v>
       </c>
       <c r="V2">
-        <v>112.3</v>
+        <v>62.856999999999999</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-0.43</v>
       </c>
       <c r="X2">
-        <v>-212.9</v>
+        <v>-10.367000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>94.1</v>
+        <v>187.87100000000001</v>
       </c>
       <c r="AA2">
-        <v>69.8</v>
+        <v>130.13900000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>70.599999999999994</v>
+        <v>96.805000000000007</v>
       </c>
       <c r="D3">
-        <v>875.3</v>
+        <v>200.20400000000001</v>
       </c>
       <c r="E3">
-        <v>502.1</v>
+        <v>134.37200000000001</v>
       </c>
       <c r="F3">
-        <v>377.3</v>
+        <v>128.10300000000001</v>
       </c>
       <c r="G3">
-        <v>1757.1</v>
+        <v>704.92499999999995</v>
       </c>
       <c r="H3">
-        <v>5712.8</v>
+        <v>1750.221</v>
       </c>
       <c r="I3">
-        <v>592.70000000000005</v>
+        <v>66.965999999999994</v>
       </c>
       <c r="J3">
-        <v>1158.5</v>
+        <v>161.26</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>754.2</v>
+        <v>114.89</v>
       </c>
       <c r="O3">
-        <v>2577.6</v>
+        <v>393.62599999999998</v>
       </c>
       <c r="P3">
-        <v>1243.5</v>
+        <v>162.54</v>
       </c>
       <c r="Q3">
-        <v>55.6</v>
+        <v>47.718000000000004</v>
       </c>
       <c r="R3">
-        <v>40359</v>
+        <v>36707</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3135.2</v>
+        <v>1356.595</v>
       </c>
       <c r="U3">
-        <v>224.8</v>
+        <v>353.70400000000001</v>
       </c>
       <c r="V3">
-        <v>73.8</v>
+        <v>-18.259</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>9.5</v>
+        <v>8.6210000000000004</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-13.6</v>
+        <v>69.965999999999994</v>
       </c>
       <c r="AA3">
-        <v>70.599999999999994</v>
+        <v>96.805000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40451</v>
+        <v>36799</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>25.7</v>
+        <v>-67.537999999999997</v>
       </c>
       <c r="D4">
-        <v>882.4</v>
+        <v>179.33099999999999</v>
       </c>
       <c r="E4">
-        <v>523.1</v>
+        <v>85.781999999999996</v>
       </c>
       <c r="F4">
-        <v>397.8</v>
+        <v>82.414000000000001</v>
       </c>
       <c r="G4">
-        <v>1764.2</v>
+        <v>712.97</v>
       </c>
       <c r="H4">
-        <v>5847.7</v>
+        <v>2691.6570000000002</v>
       </c>
       <c r="I4">
-        <v>539.6</v>
+        <v>148.36600000000001</v>
       </c>
       <c r="J4">
-        <v>1162.0999999999999</v>
+        <v>499.21300000000002</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>753.7</v>
+        <v>217.35</v>
       </c>
       <c r="O4">
-        <v>2628.1</v>
+        <v>1073.17</v>
       </c>
       <c r="P4">
-        <v>1197.0999999999999</v>
+        <v>536.94600000000003</v>
       </c>
       <c r="Q4">
-        <v>30.8</v>
+        <v>-248.27500000000001</v>
       </c>
       <c r="R4">
-        <v>40451</v>
+        <v>36799</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3219.6</v>
+        <v>1618.4870000000001</v>
       </c>
       <c r="U4">
-        <v>255.6</v>
+        <v>103.334</v>
       </c>
       <c r="V4">
-        <v>136.5</v>
+        <v>-51.345999999999997</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-44.4</v>
+        <v>235.16200000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>4.5</v>
+        <v>98.662999999999997</v>
       </c>
       <c r="AA4">
-        <v>25.7</v>
+        <v>-67.537999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>18.3</v>
+        <v>-1.911</v>
       </c>
       <c r="D5">
-        <v>952.7</v>
+        <v>254.755</v>
       </c>
       <c r="E5">
-        <v>560.9</v>
+        <v>85.703000000000003</v>
       </c>
       <c r="F5">
-        <v>471.8</v>
+        <v>133.857</v>
       </c>
       <c r="G5">
-        <v>1786.7</v>
+        <v>831.34500000000003</v>
       </c>
       <c r="H5">
-        <v>5686.6</v>
+        <v>2579.8980000000001</v>
       </c>
       <c r="I5">
-        <v>215.2</v>
+        <v>74.971999999999994</v>
       </c>
       <c r="J5">
-        <v>1016.1</v>
+        <v>483.27199999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,78 +1141,78 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>808</v>
+        <v>280.44</v>
       </c>
       <c r="O5">
-        <v>2404</v>
+        <v>1031.9290000000001</v>
       </c>
       <c r="P5">
-        <v>1016.1</v>
+        <v>536.154</v>
       </c>
       <c r="Q5">
-        <v>27.2</v>
+        <v>-42.768000000000001</v>
       </c>
       <c r="R5">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S5">
-        <v>6030</v>
+        <v>3000</v>
       </c>
       <c r="T5">
-        <v>3282.6</v>
+        <v>1547.9690000000001</v>
       </c>
       <c r="U5">
-        <v>282.8</v>
+        <v>66.194000000000003</v>
       </c>
       <c r="V5">
-        <v>248.4</v>
+        <v>-33.823</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-163.5</v>
+        <v>-6.0679999999999996</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-29.3</v>
+        <v>22.236000000000001</v>
       </c>
       <c r="AA5">
-        <v>18.3</v>
+        <v>-1.911</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>45.3</v>
+        <v>62.456000000000003</v>
       </c>
       <c r="D6">
-        <v>876.5</v>
+        <v>296.846</v>
       </c>
       <c r="E6">
-        <v>532.70000000000005</v>
+        <v>193.90799999999999</v>
       </c>
       <c r="F6">
-        <v>420.9</v>
+        <v>164.08799999999999</v>
       </c>
       <c r="G6">
-        <v>1936.8</v>
+        <v>786.976</v>
       </c>
       <c r="H6">
-        <v>5929.1</v>
+        <v>2546.1689999999999</v>
       </c>
       <c r="I6">
-        <v>647.4</v>
+        <v>205.14099999999999</v>
       </c>
       <c r="J6">
-        <v>1020.3</v>
+        <v>466.53399999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,81 +1221,81 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-12.737</v>
       </c>
       <c r="N6">
-        <v>856.3</v>
+        <v>269.68200000000002</v>
       </c>
       <c r="O6">
-        <v>2558.6999999999998</v>
+        <v>952.49</v>
       </c>
       <c r="P6">
-        <v>1020.3</v>
+        <v>523.41700000000003</v>
       </c>
       <c r="Q6">
-        <v>221.7</v>
+        <v>-37.523000000000003</v>
       </c>
       <c r="R6">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>3370.4</v>
+        <v>1593.6790000000001</v>
       </c>
       <c r="U6">
-        <v>504.5</v>
+        <v>28.670999999999999</v>
       </c>
       <c r="V6">
-        <v>232</v>
+        <v>-46.680999999999997</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>11.2</v>
+        <v>-6.2809999999999997</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>32.598999999999997</v>
       </c>
       <c r="AA6">
-        <v>45.3</v>
+        <v>62.456000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>52.7</v>
+        <v>66.245000000000005</v>
       </c>
       <c r="D7">
-        <v>1081.7</v>
+        <v>298.97800000000001</v>
       </c>
       <c r="E7">
-        <v>824.3</v>
+        <v>199.25800000000001</v>
       </c>
       <c r="F7">
-        <v>468.3</v>
+        <v>188.99799999999999</v>
       </c>
       <c r="G7">
-        <v>2005.4</v>
+        <v>842.06399999999996</v>
       </c>
       <c r="H7">
-        <v>6639.6</v>
+        <v>2599.366</v>
       </c>
       <c r="I7">
-        <v>914.1</v>
+        <v>174.49199999999999</v>
       </c>
       <c r="J7">
-        <v>1024.5</v>
+        <v>455.50200000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1366.5</v>
+        <v>237.227</v>
       </c>
       <c r="O7">
-        <v>3166.2</v>
+        <v>908.80399999999997</v>
       </c>
       <c r="P7">
-        <v>1274.5</v>
+        <v>511.529</v>
       </c>
       <c r="Q7">
-        <v>-279.39999999999998</v>
+        <v>34.073999999999998</v>
       </c>
       <c r="R7">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3473.4</v>
+        <v>1690.5619999999999</v>
       </c>
       <c r="U7">
-        <v>225.1</v>
+        <v>62.744999999999997</v>
       </c>
       <c r="V7">
-        <v>59.8</v>
+        <v>48.061999999999998</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>245.9</v>
+        <v>-2.391</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1.4</v>
+        <v>17.065000000000001</v>
       </c>
       <c r="AA7">
-        <v>52.7</v>
+        <v>66.245000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>68.099999999999994</v>
+        <v>-58.633000000000003</v>
       </c>
       <c r="D8">
-        <v>1081.5999999999999</v>
+        <v>270.94200000000001</v>
       </c>
       <c r="E8">
-        <v>700.5</v>
+        <v>211.74600000000001</v>
       </c>
       <c r="F8">
-        <v>478.4</v>
+        <v>130.54400000000001</v>
       </c>
       <c r="G8">
-        <v>1840.3</v>
+        <v>844.04</v>
       </c>
       <c r="H8">
-        <v>6363.5</v>
+        <v>2537.7240000000002</v>
       </c>
       <c r="I8">
-        <v>794.7</v>
+        <v>168.97300000000001</v>
       </c>
       <c r="J8">
-        <v>1152.3</v>
+        <v>435.54899999999998</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1017.4</v>
+        <v>272.46699999999998</v>
       </c>
       <c r="O8">
-        <v>2875.7</v>
+        <v>914.12099999999998</v>
       </c>
       <c r="P8">
-        <v>1153.5999999999999</v>
+        <v>499.65100000000001</v>
       </c>
       <c r="Q8">
-        <v>-61.8</v>
+        <v>68.754999999999995</v>
       </c>
       <c r="R8">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3487.8</v>
+        <v>1623.6030000000001</v>
       </c>
       <c r="U8">
-        <v>163.30000000000001</v>
+        <v>131.5</v>
       </c>
       <c r="V8">
-        <v>118.4</v>
+        <v>97.813000000000002</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-117.2</v>
+        <v>-12.363</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-0.9</v>
+        <v>4.681</v>
       </c>
       <c r="AA8">
-        <v>68.099999999999994</v>
+        <v>-58.633000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>94.8</v>
+        <v>46.292999999999999</v>
       </c>
       <c r="D9">
-        <v>1544.6</v>
+        <v>293.91000000000003</v>
       </c>
       <c r="E9">
-        <v>1165.7</v>
+        <v>173.08500000000001</v>
       </c>
       <c r="F9">
-        <v>671.1</v>
+        <v>168.512</v>
       </c>
       <c r="G9">
-        <v>2569.6999999999998</v>
+        <v>889.73800000000006</v>
       </c>
       <c r="H9">
-        <v>6698.3</v>
+        <v>2528.3339999999998</v>
       </c>
       <c r="I9">
-        <v>755.9</v>
+        <v>63.424999999999997</v>
       </c>
       <c r="J9">
-        <v>848.5</v>
+        <v>415.70299999999997</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1839.5</v>
+        <v>245.125</v>
       </c>
       <c r="O9">
-        <v>3135.8</v>
+        <v>856.28399999999999</v>
       </c>
       <c r="P9">
-        <v>1033</v>
+        <v>483.80500000000001</v>
       </c>
       <c r="Q9">
-        <v>46</v>
+        <v>62.231000000000002</v>
       </c>
       <c r="R9">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S9">
-        <v>6686</v>
+        <v>3416</v>
       </c>
       <c r="T9">
-        <v>3562.5</v>
+        <v>1672.05</v>
       </c>
       <c r="U9">
-        <v>209.3</v>
+        <v>193.73099999999999</v>
       </c>
       <c r="V9">
-        <v>221.8</v>
+        <v>101.492</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-123.5</v>
+        <v>-10.244999999999999</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-8.8000000000000007</v>
+        <v>3.4409999999999998</v>
       </c>
       <c r="AA9">
-        <v>94.8</v>
+        <v>46.292999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>54.8</v>
+        <v>32.085000000000001</v>
       </c>
       <c r="D10">
-        <v>1524.3</v>
+        <v>285.69</v>
       </c>
       <c r="E10">
-        <v>1030.8</v>
+        <v>174.42</v>
       </c>
       <c r="F10">
-        <v>620</v>
+        <v>150.00299999999999</v>
       </c>
       <c r="G10">
-        <v>2408.6</v>
+        <v>799.46699999999998</v>
       </c>
       <c r="H10">
-        <v>6862.7</v>
+        <v>2497.933</v>
       </c>
       <c r="I10">
-        <v>1085.8</v>
+        <v>153.035</v>
       </c>
       <c r="J10">
-        <v>1163.8</v>
+        <v>395.92899999999997</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1553,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-60</v>
+        <v>-31.603999999999999</v>
       </c>
       <c r="N10">
-        <v>1578.6</v>
+        <v>272.61099999999999</v>
       </c>
       <c r="O10">
-        <v>3202.9</v>
+        <v>821.24099999999999</v>
       </c>
       <c r="P10">
-        <v>1352.8</v>
+        <v>452.03100000000001</v>
       </c>
       <c r="Q10">
-        <v>-40.6</v>
+        <v>-23.24</v>
       </c>
       <c r="R10">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>3659.8</v>
+        <v>1676.692</v>
       </c>
       <c r="U10">
-        <v>168.7</v>
+        <v>170.49100000000001</v>
       </c>
       <c r="V10">
-        <v>100.4</v>
+        <v>91.870999999999995</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>266.10000000000002</v>
+        <v>-31.216999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>54.8</v>
+        <v>32.085000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-62.2</v>
+        <v>59.956000000000003</v>
       </c>
       <c r="D11">
-        <v>1355.2</v>
+        <v>300.07400000000001</v>
       </c>
       <c r="E11">
-        <v>876</v>
+        <v>177.94800000000001</v>
       </c>
       <c r="F11">
-        <v>601.20000000000005</v>
+        <v>161.989</v>
       </c>
       <c r="G11">
-        <v>2319.9</v>
+        <v>914.91</v>
       </c>
       <c r="H11">
-        <v>6527.1</v>
+        <v>2591.3629999999998</v>
       </c>
       <c r="I11">
-        <v>893.4</v>
+        <v>166.71299999999999</v>
       </c>
       <c r="J11">
-        <v>1098.7</v>
+        <v>374.786</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1530.7</v>
+        <v>337.44400000000002</v>
       </c>
       <c r="O11">
-        <v>2966.9</v>
+        <v>864.86400000000003</v>
       </c>
       <c r="P11">
-        <v>1292.0999999999999</v>
+        <v>450.88900000000001</v>
       </c>
       <c r="Q11">
-        <v>48.9</v>
+        <v>116.542</v>
       </c>
       <c r="R11">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3560.2</v>
+        <v>1726.499</v>
       </c>
       <c r="U11">
-        <v>217.6</v>
+        <v>268.44400000000002</v>
       </c>
       <c r="V11">
-        <v>199.7</v>
+        <v>106.376</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-129.6</v>
+        <v>32.993000000000002</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-62.2</v>
+        <v>59.956000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>76.7</v>
+        <v>40.656999999999996</v>
       </c>
       <c r="D12">
-        <v>1285.2</v>
+        <v>307.86</v>
       </c>
       <c r="E12">
-        <v>924.8</v>
+        <v>181.18</v>
       </c>
       <c r="F12">
-        <v>561.1</v>
+        <v>163.935</v>
       </c>
       <c r="G12">
-        <v>2441.5</v>
+        <v>899.38900000000001</v>
       </c>
       <c r="H12">
-        <v>6566</v>
+        <v>2636.0430000000001</v>
       </c>
       <c r="I12">
-        <v>898.9</v>
+        <v>172.541</v>
       </c>
       <c r="J12">
-        <v>1023.8</v>
+        <v>355.65600000000001</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1555.6</v>
+        <v>362.60700000000003</v>
       </c>
       <c r="O12">
-        <v>2876.1</v>
+        <v>875.68200000000002</v>
       </c>
       <c r="P12">
-        <v>1220.5999999999999</v>
+        <v>435.048</v>
       </c>
       <c r="Q12">
-        <v>4.4000000000000004</v>
+        <v>-37.997999999999998</v>
       </c>
       <c r="R12">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3689.9</v>
+        <v>1760.3610000000001</v>
       </c>
       <c r="U12">
-        <v>222</v>
+        <v>249.035</v>
       </c>
       <c r="V12">
-        <v>145.9</v>
+        <v>83.984999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-94.7</v>
+        <v>-52.624000000000002</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-5.2</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>76.7</v>
+        <v>40.656999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>43.097999999999999</v>
       </c>
       <c r="D13">
-        <v>1750.2</v>
+        <v>329.57400000000001</v>
       </c>
       <c r="E13">
-        <v>1330.9</v>
+        <v>178.56299999999999</v>
       </c>
       <c r="F13">
-        <v>796.1</v>
+        <v>175.39</v>
       </c>
       <c r="G13">
-        <v>3838.3</v>
+        <v>913.45100000000002</v>
       </c>
       <c r="H13">
-        <v>14114.8</v>
+        <v>2663.4639999999999</v>
       </c>
       <c r="I13">
-        <v>598.6</v>
+        <v>86.953000000000003</v>
       </c>
       <c r="J13">
-        <v>6257.1</v>
+        <v>331.87700000000001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2749.3</v>
+        <v>375.46499999999997</v>
       </c>
       <c r="O13">
-        <v>10258.4</v>
+        <v>865.18</v>
       </c>
       <c r="P13">
-        <v>6433.3</v>
+        <v>415.23700000000002</v>
       </c>
       <c r="Q13">
-        <v>97</v>
+        <v>-18.88</v>
       </c>
       <c r="R13">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S13">
-        <v>17700</v>
+        <v>3729</v>
       </c>
       <c r="T13">
-        <v>3856.4</v>
+        <v>1798.2840000000001</v>
       </c>
       <c r="U13">
-        <v>319</v>
+        <v>230.155</v>
       </c>
       <c r="V13">
-        <v>219.8</v>
+        <v>21.757000000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>5147.8</v>
+        <v>-19.510999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>50.2</v>
+        <v>9.0869999999999997</v>
       </c>
       <c r="AA13">
-        <v>28</v>
+        <v>43.097999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-102.8</v>
+        <v>47.829000000000001</v>
       </c>
       <c r="D14">
-        <v>1895.5</v>
+        <v>336.92200000000003</v>
       </c>
       <c r="E14">
-        <v>1275.5</v>
+        <v>157.07499999999999</v>
       </c>
       <c r="F14">
-        <v>902.4</v>
+        <v>187.321</v>
       </c>
       <c r="G14">
-        <v>3835.8</v>
+        <v>1081.896</v>
       </c>
       <c r="H14">
-        <v>14173</v>
+        <v>3012.2750000000001</v>
       </c>
       <c r="I14">
-        <v>1938.6</v>
+        <v>200.45699999999999</v>
       </c>
       <c r="J14">
-        <v>6243.2</v>
+        <v>722.42600000000004</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1885,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-97.1</v>
+        <v>-325.94</v>
       </c>
       <c r="N14">
-        <v>2934.9</v>
+        <v>285.59699999999998</v>
       </c>
       <c r="O14">
-        <v>10550.7</v>
+        <v>1158.1559999999999</v>
       </c>
       <c r="P14">
-        <v>6421.5</v>
+        <v>722.42600000000004</v>
       </c>
       <c r="Q14">
-        <v>9.4</v>
+        <v>185.52099999999999</v>
       </c>
       <c r="R14">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>3622.3</v>
+        <v>1854.1189999999999</v>
       </c>
       <c r="U14">
-        <v>328.4</v>
+        <v>415.67599999999999</v>
       </c>
       <c r="V14">
-        <v>218.6</v>
+        <v>68.284000000000006</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-42.5</v>
+        <v>295.64600000000002</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>3.8290000000000002</v>
       </c>
       <c r="AA14">
-        <v>-102.8</v>
+        <v>47.829000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-564.79999999999995</v>
+        <v>50.715000000000003</v>
       </c>
       <c r="D15">
-        <v>1989.8</v>
+        <v>355.88</v>
       </c>
       <c r="E15">
-        <v>1372.3</v>
+        <v>130.66800000000001</v>
       </c>
       <c r="F15">
-        <v>939.5</v>
+        <v>201.50399999999999</v>
       </c>
       <c r="G15">
-        <v>3916</v>
+        <v>1206.7260000000001</v>
       </c>
       <c r="H15">
-        <v>13560.6</v>
+        <v>3143.58</v>
       </c>
       <c r="I15">
-        <v>1518.5</v>
+        <v>209.39099999999999</v>
       </c>
       <c r="J15">
-        <v>6173.9</v>
+        <v>722.32</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2389</v>
+        <v>330.66899999999998</v>
       </c>
       <c r="O15">
-        <v>10019.6</v>
+        <v>1213.3330000000001</v>
       </c>
       <c r="P15">
-        <v>6351.1</v>
+        <v>722.32</v>
       </c>
       <c r="Q15">
-        <v>-101.5</v>
+        <v>120.166</v>
       </c>
       <c r="R15">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3541</v>
+        <v>1930.2470000000001</v>
       </c>
       <c r="U15">
-        <v>226.9</v>
+        <v>535.84199999999998</v>
       </c>
       <c r="V15">
-        <v>72.400000000000006</v>
+        <v>134.13800000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-64.599999999999994</v>
+        <v>12.189</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>3.5590000000000002</v>
       </c>
       <c r="AA15">
-        <v>-564.79999999999995</v>
+        <v>50.715000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>65.599999999999994</v>
+        <v>51.459000000000003</v>
       </c>
       <c r="D16">
-        <v>2013</v>
+        <v>358.75599999999997</v>
       </c>
       <c r="E16">
-        <v>1366.2</v>
+        <v>122.255</v>
       </c>
       <c r="F16">
-        <v>929.8</v>
+        <v>216.42500000000001</v>
       </c>
       <c r="G16">
-        <v>4073.4</v>
+        <v>1291.74</v>
       </c>
       <c r="H16">
-        <v>13644.1</v>
+        <v>3240.808</v>
       </c>
       <c r="I16">
-        <v>1432.5</v>
+        <v>209.703</v>
       </c>
       <c r="J16">
-        <v>5683.3</v>
+        <v>722.42700000000002</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2807.2</v>
+        <v>351.92500000000001</v>
       </c>
       <c r="O16">
-        <v>9896.1</v>
+        <v>1245.001</v>
       </c>
       <c r="P16">
-        <v>6310.4</v>
+        <v>722.42700000000002</v>
       </c>
       <c r="Q16">
-        <v>141.1</v>
+        <v>74.176000000000002</v>
       </c>
       <c r="R16">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3748</v>
+        <v>1995.807</v>
       </c>
       <c r="U16">
-        <v>368</v>
+        <v>610.01800000000003</v>
       </c>
       <c r="V16">
-        <v>270.8</v>
+        <v>95.504999999999995</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-94.7</v>
+        <v>12.012</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>18.234000000000002</v>
       </c>
       <c r="AA16">
-        <v>65.599999999999994</v>
+        <v>51.459000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-148.4</v>
+        <v>52.860999999999997</v>
       </c>
       <c r="D17">
-        <v>2779.3</v>
+        <v>406.16399999999999</v>
       </c>
       <c r="E17">
-        <v>1404.9</v>
+        <v>211.17400000000001</v>
       </c>
       <c r="F17">
-        <v>1554.7</v>
+        <v>227.821</v>
       </c>
       <c r="G17">
-        <v>4434.7</v>
+        <v>1323.489</v>
       </c>
       <c r="H17">
-        <v>22725.9</v>
+        <v>3282.6</v>
       </c>
       <c r="I17">
-        <v>493.3</v>
+        <v>73.489999999999995</v>
       </c>
       <c r="J17">
-        <v>8517.4</v>
+        <v>722.53499999999997</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3294.9</v>
+        <v>338.685</v>
       </c>
       <c r="O17">
-        <v>13188.8</v>
+        <v>1225.2539999999999</v>
       </c>
       <c r="P17">
-        <v>9052</v>
+        <v>722.53499999999997</v>
       </c>
       <c r="Q17">
-        <v>-39</v>
+        <v>-262.37900000000002</v>
       </c>
       <c r="R17">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S17">
-        <v>19200</v>
+        <v>3983</v>
       </c>
       <c r="T17">
-        <v>9537.1</v>
+        <v>2057.346</v>
       </c>
       <c r="U17">
-        <v>329</v>
+        <v>318.04300000000001</v>
       </c>
       <c r="V17">
-        <v>651.70000000000005</v>
+        <v>-35.409999999999997</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-665.5</v>
+        <v>10.784000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>33.200000000000003</v>
+        <v>-175.066</v>
       </c>
       <c r="AA17">
-        <v>-148.4</v>
+        <v>52.860999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>96.5</v>
+        <v>46.658999999999999</v>
       </c>
       <c r="D18">
-        <v>2655.1</v>
+        <v>409.65800000000002</v>
       </c>
       <c r="E18">
-        <v>1508.7</v>
+        <v>214.17599999999999</v>
       </c>
       <c r="F18">
-        <v>1487</v>
+        <v>213.17699999999999</v>
       </c>
       <c r="G18">
-        <v>4540.7</v>
+        <v>1220.796</v>
       </c>
       <c r="H18">
-        <v>22403.9</v>
+        <v>3166.6509999999998</v>
       </c>
       <c r="I18">
-        <v>594.70000000000005</v>
+        <v>209.57599999999999</v>
       </c>
       <c r="J18">
-        <v>8452.2000000000007</v>
+        <v>621.02700000000004</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2217,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-326.10000000000002</v>
+        <v>-115.621</v>
       </c>
       <c r="N18">
-        <v>3002.1</v>
+        <v>257.56200000000001</v>
       </c>
       <c r="O18">
-        <v>12775.3</v>
+        <v>1046.8900000000001</v>
       </c>
       <c r="P18">
-        <v>8720.5</v>
+        <v>621.02700000000004</v>
       </c>
       <c r="Q18">
-        <v>8.6999999999999993</v>
+        <v>-103.94799999999999</v>
       </c>
       <c r="R18">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>9628.6</v>
+        <v>2119.761</v>
       </c>
       <c r="U18">
-        <v>337.7</v>
+        <v>449.93700000000001</v>
       </c>
       <c r="V18">
-        <v>439.6</v>
+        <v>10.025</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-368</v>
+        <v>-102.51600000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>15</v>
+        <v>4.7060000000000004</v>
       </c>
       <c r="AA18">
-        <v>96.5</v>
+        <v>46.658999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>34.927</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>399.36799999999999</v>
       </c>
       <c r="E19">
-        <v>1567.7</v>
+        <v>210.619</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>200.51400000000001</v>
       </c>
       <c r="G19">
-        <v>8272.9</v>
+        <v>1229.819</v>
       </c>
       <c r="H19">
-        <v>25789.4</v>
+        <v>3181.8090000000002</v>
       </c>
       <c r="I19">
-        <v>588.79999999999995</v>
+        <v>210.673</v>
       </c>
       <c r="J19">
-        <v>10742.6</v>
+        <v>587.51099999999997</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>4183.3999999999996</v>
+        <v>261.27300000000002</v>
       </c>
       <c r="O19">
-        <v>16104.7</v>
+        <v>1015.564</v>
       </c>
       <c r="P19">
-        <v>12331.4</v>
+        <v>587.51099999999997</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>44.933999999999997</v>
       </c>
       <c r="R19">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>9684.7000000000007</v>
+        <v>2166.2449999999999</v>
       </c>
       <c r="U19">
-        <v>4293.6000000000004</v>
+        <v>473.399</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>86.521000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>-27.803000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>11.41</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>34.927</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>14.641</v>
       </c>
       <c r="D20">
-        <v>2150.8000000000002</v>
+        <v>408.01799999999997</v>
       </c>
       <c r="E20">
-        <v>2229.3000000000002</v>
+        <v>230.102</v>
       </c>
       <c r="F20">
-        <v>996.1</v>
+        <v>205.51</v>
       </c>
       <c r="G20">
-        <v>6252.3</v>
+        <v>1305.077</v>
       </c>
       <c r="H20">
-        <v>53467.4</v>
+        <v>3170.6869999999999</v>
       </c>
       <c r="I20">
-        <v>717.3</v>
+        <v>179.70500000000001</v>
       </c>
       <c r="J20">
-        <v>15093.8</v>
+        <v>587.58299999999997</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>4481.3</v>
+        <v>249.22399999999999</v>
       </c>
       <c r="O20">
-        <v>24322.400000000001</v>
+        <v>988.447</v>
       </c>
       <c r="P20">
-        <v>15537.1</v>
+        <v>587.58299999999997</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>121.238</v>
       </c>
       <c r="R20">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>29145</v>
+        <v>2182.2399999999998</v>
       </c>
       <c r="U20">
-        <v>339.4</v>
+        <v>595.21900000000005</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>109.47199999999999</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>3.5449999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>2.0470000000000002</v>
       </c>
       <c r="AA20">
-        <v>-1042.8</v>
+        <v>14.641</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-732.9</v>
+        <v>53.795999999999999</v>
       </c>
       <c r="D21">
-        <v>2415.6</v>
+        <v>423.50700000000001</v>
       </c>
       <c r="E21">
-        <v>1112.3</v>
+        <v>251.459</v>
       </c>
       <c r="F21">
-        <v>2059.9</v>
+        <v>200.55600000000001</v>
       </c>
       <c r="G21">
-        <v>7110.6</v>
+        <v>1370.1859999999999</v>
       </c>
       <c r="H21">
-        <v>52758</v>
+        <v>3237.4830000000002</v>
       </c>
       <c r="I21">
-        <v>323.3</v>
+        <v>61.82</v>
       </c>
       <c r="J21">
-        <v>14837.7</v>
+        <v>587.65300000000002</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5247.5</v>
+        <v>255.62899999999999</v>
       </c>
       <c r="O21">
-        <v>24422.5</v>
+        <v>1000.534</v>
       </c>
       <c r="P21">
-        <v>15531.1</v>
+        <v>587.65300000000002</v>
       </c>
       <c r="Q21">
-        <v>-89.4</v>
+        <v>-81.614000000000004</v>
       </c>
       <c r="R21">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S21">
-        <v>21600</v>
+        <v>3851</v>
       </c>
       <c r="T21">
-        <v>28335.5</v>
+        <v>2236.9490000000001</v>
       </c>
       <c r="U21">
-        <v>250</v>
+        <v>298.65300000000002</v>
       </c>
       <c r="V21">
-        <v>811.6</v>
+        <v>102.251</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-158.69999999999999</v>
+        <v>6.0439999999999996</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>452.7</v>
+        <v>-156.93299999999999</v>
       </c>
       <c r="AA21">
-        <v>-732.9</v>
+        <v>53.795999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-512</v>
+        <v>38.613</v>
       </c>
       <c r="D22">
-        <v>1983</v>
+        <v>400.82799999999997</v>
       </c>
       <c r="E22">
-        <v>3992.8</v>
+        <v>230.024</v>
       </c>
       <c r="F22">
-        <v>1530</v>
+        <v>193.87799999999999</v>
       </c>
       <c r="G22">
-        <v>11017.2</v>
+        <v>1367.7439999999999</v>
       </c>
       <c r="H22">
-        <v>139460.70000000001</v>
+        <v>3198.2759999999998</v>
       </c>
       <c r="I22">
-        <v>770.3</v>
+        <v>181.47499999999999</v>
       </c>
       <c r="J22">
-        <v>42700.5</v>
+        <v>587.72400000000005</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,81 +2549,81 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-2660</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>7655.5</v>
+        <v>240.434</v>
       </c>
       <c r="O22">
-        <v>68051.199999999997</v>
+        <v>977.02099999999996</v>
       </c>
       <c r="P22">
-        <v>44324.6</v>
+        <v>587.72400000000005</v>
       </c>
       <c r="Q22">
-        <v>1864.9</v>
+        <v>34.731999999999999</v>
       </c>
       <c r="R22">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>71409.5</v>
+        <v>2221.2550000000001</v>
       </c>
       <c r="U22">
-        <v>2114.9</v>
+        <v>333.38499999999999</v>
       </c>
       <c r="V22">
-        <v>525</v>
+        <v>105.367</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>35285.599999999999</v>
+        <v>-60.316000000000003</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>-512</v>
+        <v>38.613</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-243.1</v>
+        <v>40.448999999999998</v>
       </c>
       <c r="D23">
-        <v>3628.7</v>
+        <v>416.26600000000002</v>
       </c>
       <c r="E23">
-        <v>4420.1000000000004</v>
+        <v>271.25799999999998</v>
       </c>
       <c r="F23">
-        <v>3209.1</v>
+        <v>205.053</v>
       </c>
       <c r="G23">
-        <v>10486.9</v>
+        <v>1321.0730000000001</v>
       </c>
       <c r="H23">
-        <v>138411.1</v>
+        <v>3124.9070000000002</v>
       </c>
       <c r="I23">
-        <v>971.1</v>
+        <v>186.80799999999999</v>
       </c>
       <c r="J23">
-        <v>41319.4</v>
+        <v>587.79399999999998</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,78 +2635,78 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>7649.5</v>
+        <v>240.142</v>
       </c>
       <c r="O23">
-        <v>66336.600000000006</v>
+        <v>974.67499999999995</v>
       </c>
       <c r="P23">
-        <v>42870.3</v>
+        <v>587.79399999999998</v>
       </c>
       <c r="Q23">
-        <v>-597</v>
+        <v>155.35</v>
       </c>
       <c r="R23">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>72074.5</v>
+        <v>2150.232</v>
       </c>
       <c r="U23">
-        <v>1517.9</v>
+        <v>488.73500000000001</v>
       </c>
       <c r="V23">
-        <v>1401.3</v>
+        <v>73.576999999999998</v>
       </c>
       <c r="W23">
-        <v>-68.7</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-1470.6</v>
+        <v>-111.099</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>849.8</v>
+        <v>221.083</v>
       </c>
       <c r="AA23">
-        <v>-243.1</v>
+        <v>40.448999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>5301.2</v>
+        <v>39.085999999999999</v>
       </c>
       <c r="D24">
-        <v>3469.5</v>
+        <v>410.29599999999999</v>
       </c>
       <c r="E24">
-        <v>2143.1999999999998</v>
+        <v>290.64800000000002</v>
       </c>
       <c r="F24">
-        <v>3075.6</v>
+        <v>199.48699999999999</v>
       </c>
       <c r="G24">
-        <v>16658.7</v>
+        <v>1307.78</v>
       </c>
       <c r="H24">
-        <v>142816.29999999999</v>
+        <v>3070.3159999999998</v>
       </c>
       <c r="I24">
-        <v>565.9</v>
+        <v>194.40700000000001</v>
       </c>
       <c r="J24">
-        <v>40648.1</v>
+        <v>587.86400000000003</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>8133</v>
+        <v>246.535</v>
       </c>
       <c r="O24">
-        <v>65336.2</v>
+        <v>983.16200000000003</v>
       </c>
       <c r="P24">
-        <v>42683.5</v>
+        <v>587.86400000000003</v>
       </c>
       <c r="Q24">
-        <v>546</v>
+        <v>-16.510999999999999</v>
       </c>
       <c r="R24">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>77480.100000000006</v>
+        <v>2087.154</v>
       </c>
       <c r="U24">
-        <v>2063.9</v>
+        <v>472.22399999999999</v>
       </c>
       <c r="V24">
-        <v>1048.2</v>
+        <v>100.53700000000001</v>
       </c>
       <c r="W24">
-        <v>-69.7</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-248.4</v>
+        <v>-103.226</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-6</v>
+        <v>-3.5179999999999998</v>
       </c>
       <c r="AA24">
-        <v>5301.2</v>
+        <v>39.085999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-630.9</v>
+        <v>20.408999999999999</v>
       </c>
       <c r="D25">
-        <v>3606.9</v>
+        <v>418.81299999999999</v>
       </c>
       <c r="E25">
-        <v>2125.4</v>
+        <v>333.83199999999999</v>
       </c>
       <c r="F25">
-        <v>3198.5</v>
+        <v>195.37100000000001</v>
       </c>
       <c r="G25">
-        <v>8579.1</v>
+        <v>1353.5429999999999</v>
       </c>
       <c r="H25">
-        <v>135583.29999999999</v>
+        <v>3077.1869999999999</v>
       </c>
       <c r="I25">
-        <v>215.9</v>
+        <v>61.152000000000001</v>
       </c>
       <c r="J25">
-        <v>40133.9</v>
+        <v>587.93499999999995</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>8292</v>
+        <v>245.67</v>
       </c>
       <c r="O25">
-        <v>58994</v>
+        <v>976.71799999999996</v>
       </c>
       <c r="P25">
-        <v>42530.400000000001</v>
+        <v>587.93499999999995</v>
       </c>
       <c r="Q25">
-        <v>-967.9</v>
+        <v>-4.7729999999999997</v>
       </c>
       <c r="R25">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S25">
-        <v>31200</v>
+        <v>3844</v>
       </c>
       <c r="T25">
-        <v>76589.3</v>
+        <v>2100.4690000000001</v>
       </c>
       <c r="U25">
-        <v>1096</v>
+        <v>467.45100000000002</v>
       </c>
       <c r="V25">
-        <v>1555.5</v>
+        <v>46.021999999999998</v>
       </c>
       <c r="W25">
-        <v>-69.7</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-123.2</v>
+        <v>1.581</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>29.9</v>
+        <v>-19.376000000000001</v>
       </c>
       <c r="AA25">
-        <v>-630.9</v>
+        <v>20.408999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>255.7</v>
+        <v>25.173999999999999</v>
       </c>
       <c r="D26">
-        <v>3399.3</v>
+        <v>407.233</v>
       </c>
       <c r="E26">
-        <v>2652.8</v>
+        <v>269.755</v>
       </c>
       <c r="F26">
-        <v>2979.1</v>
+        <v>172.47900000000001</v>
       </c>
       <c r="G26">
-        <v>10091.5</v>
+        <v>1427.604</v>
       </c>
       <c r="H26">
-        <v>136073.70000000001</v>
+        <v>3157.3620000000001</v>
       </c>
       <c r="I26">
-        <v>450</v>
+        <v>209.69</v>
       </c>
       <c r="J26">
-        <v>38551.800000000003</v>
+        <v>573.947</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2761,81 +2881,81 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-854.2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="N26">
-        <v>10195.5</v>
+        <v>306.649</v>
       </c>
       <c r="O26">
-        <v>58625</v>
+        <v>1017.5650000000001</v>
       </c>
       <c r="P26">
-        <v>42567.5</v>
+        <v>603.88</v>
       </c>
       <c r="Q26">
-        <v>1164.8</v>
+        <v>92.283000000000001</v>
       </c>
       <c r="R26">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>77448.7</v>
+        <v>2139.797</v>
       </c>
       <c r="U26">
-        <v>2260.8000000000002</v>
+        <v>559.73400000000004</v>
       </c>
       <c r="V26">
-        <v>1253.0999999999999</v>
+        <v>135.71</v>
       </c>
       <c r="W26">
-        <v>-69.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-39.700000000000003</v>
+        <v>3.742</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>19</v>
+        <v>-7.81</v>
       </c>
       <c r="AA26">
-        <v>255.7</v>
+        <v>25.173999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-501.7</v>
+        <v>-15.611000000000001</v>
       </c>
       <c r="D27">
-        <v>3684.8</v>
+        <v>510.35599999999999</v>
       </c>
       <c r="E27">
-        <v>2490.5</v>
+        <v>347.81299999999999</v>
       </c>
       <c r="F27">
-        <v>3242.5</v>
+        <v>179.49600000000001</v>
       </c>
       <c r="G27">
-        <v>8755.2000000000007</v>
+        <v>1572.057</v>
       </c>
       <c r="H27">
-        <v>132619.1</v>
+        <v>3190.9369999999999</v>
       </c>
       <c r="I27">
-        <v>436.7</v>
+        <v>298.63900000000001</v>
       </c>
       <c r="J27">
-        <v>37075.1</v>
+        <v>574.01300000000003</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>8867.4</v>
+        <v>381.108</v>
       </c>
       <c r="O27">
-        <v>55978.3</v>
+        <v>1059.6469999999999</v>
       </c>
       <c r="P27">
-        <v>39581.699999999997</v>
+        <v>584.40499999999997</v>
       </c>
       <c r="Q27">
-        <v>-1771.3</v>
+        <v>40.677</v>
       </c>
       <c r="R27">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>76640.800000000003</v>
+        <v>2131.29</v>
       </c>
       <c r="U27">
-        <v>489.5</v>
+        <v>600.41099999999994</v>
       </c>
       <c r="V27">
-        <v>1379.8</v>
+        <v>60.515000000000001</v>
       </c>
       <c r="W27">
-        <v>-69.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-3058.9</v>
+        <v>-15.257999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>6.5</v>
+        <v>4.2060000000000004</v>
       </c>
       <c r="AA27">
-        <v>-501.7</v>
+        <v>-15.611000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>15220</v>
+        <v>34.393000000000001</v>
       </c>
       <c r="D28">
-        <v>3622.2</v>
+        <v>440.49299999999999</v>
       </c>
       <c r="E28">
-        <v>2398.5</v>
+        <v>264.26400000000001</v>
       </c>
       <c r="F28">
-        <v>3179.2</v>
+        <v>182.59700000000001</v>
       </c>
       <c r="G28">
-        <v>31723.9</v>
+        <v>1622.4570000000001</v>
       </c>
       <c r="H28">
-        <v>143607.70000000001</v>
+        <v>3199.0329999999999</v>
       </c>
       <c r="I28">
-        <v>296.5</v>
+        <v>253.864</v>
       </c>
       <c r="J28">
-        <v>31178.2</v>
+        <v>574.07799999999997</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>8025.5</v>
+        <v>349.77800000000002</v>
       </c>
       <c r="O28">
-        <v>53877.3</v>
+        <v>1028.616</v>
       </c>
       <c r="P28">
-        <v>32770</v>
+        <v>584.41399999999999</v>
       </c>
       <c r="Q28">
-        <v>7065.2</v>
+        <v>134.81100000000001</v>
       </c>
       <c r="R28">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>89730.4</v>
+        <v>2170.4169999999999</v>
       </c>
       <c r="U28">
-        <v>7554.7</v>
+        <v>735.22199999999998</v>
       </c>
       <c r="V28">
-        <v>-1097.7</v>
+        <v>141.542</v>
       </c>
       <c r="W28">
-        <v>-69.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-9589.5</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-15431</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AA28">
-        <v>15220</v>
+        <v>34.393000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-0.6</v>
+        <v>-488.96100000000001</v>
       </c>
       <c r="D29">
-        <v>3864.3</v>
+        <v>621.16200000000003</v>
       </c>
       <c r="E29">
-        <v>2531</v>
+        <v>384.69200000000001</v>
       </c>
       <c r="F29">
-        <v>3361.7</v>
+        <v>238.589</v>
       </c>
       <c r="G29">
-        <v>17857.900000000001</v>
+        <v>1261.6759999999999</v>
       </c>
       <c r="H29">
-        <v>128986.3</v>
+        <v>3760.5770000000002</v>
       </c>
       <c r="I29">
-        <v>224.9</v>
+        <v>199.75</v>
       </c>
       <c r="J29">
-        <v>29970.799999999999</v>
+        <v>1124.145</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>7874.7</v>
+        <v>689.92899999999997</v>
       </c>
       <c r="O29">
-        <v>52785.8</v>
+        <v>2080.1889999999999</v>
       </c>
       <c r="P29">
-        <v>32768.699999999997</v>
+        <v>1231.204</v>
       </c>
       <c r="Q29">
-        <v>-5830.7</v>
+        <v>-581.05100000000004</v>
       </c>
       <c r="R29">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S29">
-        <v>16700</v>
+        <v>5830</v>
       </c>
       <c r="T29">
-        <v>76200.5</v>
+        <v>1680.3879999999999</v>
       </c>
       <c r="U29">
-        <v>1724</v>
+        <v>154.17099999999999</v>
       </c>
       <c r="V29">
-        <v>-89.5</v>
+        <v>133.59800000000001</v>
       </c>
       <c r="W29">
-        <v>-69.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-12454.4</v>
+        <v>645.77200000000005</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>7433.6</v>
+        <v>151.892</v>
       </c>
       <c r="AA29">
-        <v>-0.6</v>
+        <v>-488.96100000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-2565.1999999999998</v>
+        <v>31.611999999999998</v>
       </c>
       <c r="D30">
-        <v>3572.9</v>
+        <v>671.60500000000002</v>
       </c>
       <c r="E30">
-        <v>2542</v>
+        <v>375.608</v>
       </c>
       <c r="F30">
-        <v>3118.7</v>
+        <v>249.38499999999999</v>
       </c>
       <c r="G30">
-        <v>13700.7</v>
+        <v>1101.6690000000001</v>
       </c>
       <c r="H30">
-        <v>126836.9</v>
+        <v>3545.5819999999999</v>
       </c>
       <c r="I30">
-        <v>292.2</v>
+        <v>429.11200000000002</v>
       </c>
       <c r="J30">
-        <v>26223</v>
+        <v>1074.21</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3213,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-1015.9</v>
+        <v>-151.661</v>
       </c>
       <c r="N30">
-        <v>10391.6</v>
+        <v>451.63900000000001</v>
       </c>
       <c r="O30">
-        <v>51638.1</v>
+        <v>1831.7059999999999</v>
       </c>
       <c r="P30">
-        <v>31749.4</v>
+        <v>1079.6890000000001</v>
       </c>
       <c r="Q30">
-        <v>-631.1</v>
+        <v>-80.620999999999995</v>
       </c>
       <c r="R30">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>75198.8</v>
+        <v>1713.876</v>
       </c>
       <c r="U30">
-        <v>1092.9000000000001</v>
+        <v>73.55</v>
       </c>
       <c r="V30">
-        <v>723.3</v>
+        <v>88.239000000000004</v>
       </c>
       <c r="W30">
-        <v>-305.8</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-1374.9</v>
+        <v>-150.53399999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>3267.4</v>
+        <v>-1.544</v>
       </c>
       <c r="AA30">
-        <v>-2565.1999999999998</v>
+        <v>31.611999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-725.9</v>
+        <v>36.408999999999999</v>
       </c>
       <c r="D31">
-        <v>4007.4</v>
+        <v>603.005</v>
       </c>
       <c r="E31">
-        <v>2795.9</v>
+        <v>301.60199999999998</v>
       </c>
       <c r="F31">
-        <v>3560</v>
+        <v>242.56700000000001</v>
       </c>
       <c r="G31">
-        <v>10433.200000000001</v>
+        <v>1094.57</v>
       </c>
       <c r="H31">
-        <v>124734.8</v>
+        <v>3489.3789999999999</v>
       </c>
       <c r="I31">
-        <v>304</v>
+        <v>436.77600000000001</v>
       </c>
       <c r="J31">
-        <v>26443.3</v>
+        <v>974.27599999999995</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>8638.2999999999993</v>
+        <v>459.846</v>
       </c>
       <c r="O31">
-        <v>49502</v>
+        <v>1724.4829999999999</v>
       </c>
       <c r="P31">
-        <v>30238.3</v>
+        <v>979.87800000000004</v>
       </c>
       <c r="Q31">
-        <v>-206</v>
+        <v>1.302</v>
       </c>
       <c r="R31">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>75232.800000000003</v>
+        <v>1764.896</v>
       </c>
       <c r="U31">
-        <v>886.9</v>
+        <v>74.852000000000004</v>
       </c>
       <c r="V31">
-        <v>1799.8</v>
+        <v>111.003</v>
       </c>
       <c r="W31">
-        <v>-306.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-2396.8000000000002</v>
+        <v>-90.174999999999997</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>3142.2</v>
+        <v>-1.282</v>
       </c>
       <c r="AA31">
-        <v>-725.9</v>
+        <v>36.408999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-3955.7</v>
+        <v>34.606000000000002</v>
       </c>
       <c r="D32">
-        <v>4034.3</v>
+        <v>594.70600000000002</v>
       </c>
       <c r="E32">
-        <v>2808.6</v>
+        <v>275.83999999999997</v>
       </c>
       <c r="F32">
-        <v>3461.7</v>
+        <v>248.286</v>
       </c>
       <c r="G32">
-        <v>10112.799999999999</v>
+        <v>1124.001</v>
       </c>
       <c r="H32">
-        <v>118992.8</v>
+        <v>3455.2750000000001</v>
       </c>
       <c r="I32">
-        <v>284.8</v>
+        <v>371.43099999999998</v>
       </c>
       <c r="J32">
-        <v>26539.1</v>
+        <v>974.34199999999998</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>8559.7999999999993</v>
+        <v>394.94299999999998</v>
       </c>
       <c r="O32">
-        <v>47819.3</v>
+        <v>1648.279</v>
       </c>
       <c r="P32">
-        <v>30336.1</v>
+        <v>980.92899999999997</v>
       </c>
       <c r="Q32">
-        <v>725.8</v>
+        <v>58.496000000000002</v>
       </c>
       <c r="R32">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>71173.5</v>
+        <v>1806.9960000000001</v>
       </c>
       <c r="U32">
-        <v>1612.7</v>
+        <v>133.34800000000001</v>
       </c>
       <c r="V32">
-        <v>1472.4</v>
+        <v>56.482999999999997</v>
       </c>
       <c r="W32">
-        <v>-305.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-271.89999999999998</v>
+        <v>2.9180000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-369</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="AA32">
-        <v>-3955.7</v>
+        <v>34.606000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>3121.3</v>
+        <v>38.402999999999999</v>
       </c>
       <c r="D33">
-        <v>4326.1000000000004</v>
+        <v>627.33500000000004</v>
       </c>
       <c r="E33">
-        <v>2899</v>
+        <v>267.11700000000002</v>
       </c>
       <c r="F33">
-        <v>3714.8</v>
+        <v>251.65700000000001</v>
       </c>
       <c r="G33">
-        <v>11376.7</v>
+        <v>1173.7760000000001</v>
       </c>
       <c r="H33">
-        <v>118341.9</v>
+        <v>3472.027</v>
       </c>
       <c r="I33">
-        <v>324.5</v>
+        <v>158.267</v>
       </c>
       <c r="J33">
-        <v>25843.5</v>
+        <v>899.40800000000002</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>9848.1</v>
+        <v>444.92700000000002</v>
       </c>
       <c r="O33">
-        <v>44504.800000000003</v>
+        <v>1622.5619999999999</v>
       </c>
       <c r="P33">
-        <v>30075.3</v>
+        <v>905.649</v>
       </c>
       <c r="Q33">
-        <v>204.5</v>
+        <v>71.206000000000003</v>
       </c>
       <c r="R33">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S33">
-        <v>17800</v>
+        <v>5640</v>
       </c>
       <c r="T33">
-        <v>73837.100000000006</v>
+        <v>1849.4649999999999</v>
       </c>
       <c r="U33">
-        <v>1817.2</v>
+        <v>204.554</v>
       </c>
       <c r="V33">
-        <v>2083.5</v>
+        <v>171.453</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-1085.5999999999999</v>
+        <v>-74.712000000000003</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-671.1</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AA33">
-        <v>3121.3</v>
+        <v>38.402999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-286.10000000000002</v>
+        <v>50.6</v>
       </c>
       <c r="D34">
-        <v>3672.1</v>
+        <v>626.9</v>
       </c>
       <c r="E34">
-        <v>2639.2</v>
+        <v>273.30500000000001</v>
       </c>
       <c r="F34">
-        <v>3166.9</v>
+        <v>246.8</v>
       </c>
       <c r="G34">
-        <v>6393.3</v>
+        <v>1163.627</v>
       </c>
       <c r="H34">
-        <v>112021.3</v>
+        <v>3439.6439999999998</v>
       </c>
       <c r="I34">
-        <v>304.39999999999998</v>
+        <v>327.54500000000002</v>
       </c>
       <c r="J34">
-        <v>25936.400000000001</v>
+        <v>824.47299999999996</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3545,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-4322.1000000000004</v>
+        <v>-88.1</v>
       </c>
       <c r="N34">
-        <v>5816</v>
+        <v>435.721</v>
       </c>
       <c r="O34">
-        <v>39675.300000000003</v>
+        <v>1536.277</v>
       </c>
       <c r="P34">
-        <v>26562.6</v>
+        <v>827.32399999999996</v>
       </c>
       <c r="Q34">
-        <v>-822.4</v>
+        <v>-30.6</v>
       </c>
       <c r="R34">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>72346</v>
+        <v>1903.367</v>
       </c>
       <c r="U34">
-        <v>994.8</v>
+        <v>173.99799999999999</v>
       </c>
       <c r="V34">
-        <v>1458.3</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="W34">
-        <v>-319.5</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-5207.7</v>
+        <v>-79</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>3433.6</v>
+        <v>0.3</v>
       </c>
       <c r="AA34">
-        <v>-286.10000000000002</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-472.5</v>
+        <v>60.3</v>
       </c>
       <c r="D35">
-        <v>4124.2</v>
+        <v>622.70000000000005</v>
       </c>
       <c r="E35">
-        <v>2760.8</v>
+        <v>297.17099999999999</v>
       </c>
       <c r="F35">
-        <v>3524.3</v>
+        <v>262.8</v>
       </c>
       <c r="G35">
-        <v>6103.7</v>
+        <v>1245.3589999999999</v>
       </c>
       <c r="H35">
-        <v>108858.8</v>
+        <v>3489.7869999999998</v>
       </c>
       <c r="I35">
-        <v>285.8</v>
+        <v>338.15</v>
       </c>
       <c r="J35">
-        <v>24002</v>
+        <v>824.54</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>6125.3</v>
+        <v>424.86700000000002</v>
       </c>
       <c r="O35">
-        <v>37594.800000000003</v>
+        <v>1519.3530000000001</v>
       </c>
       <c r="P35">
-        <v>25350.5</v>
+        <v>827.48900000000003</v>
       </c>
       <c r="Q35">
-        <v>679.9</v>
+        <v>91.5</v>
       </c>
       <c r="R35">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>71264</v>
+        <v>1970.434</v>
       </c>
       <c r="U35">
-        <v>1674.7</v>
+        <v>265.46899999999999</v>
       </c>
       <c r="V35">
-        <v>1240.2</v>
+        <v>99.6</v>
       </c>
       <c r="W35">
-        <v>-244.2</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-1282.7</v>
+        <v>3.1</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>761.8</v>
+        <v>-0.2</v>
       </c>
       <c r="AA35">
-        <v>-472.5</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>-37.9</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="D36">
-        <v>3911.4</v>
+        <v>640.70000000000005</v>
       </c>
       <c r="E36">
-        <v>2826.9</v>
+        <v>314.47500000000002</v>
       </c>
       <c r="F36">
-        <v>3331.7</v>
+        <v>254</v>
       </c>
       <c r="G36">
-        <v>5740.2</v>
+        <v>1323.2650000000001</v>
       </c>
       <c r="H36">
-        <v>106542.5</v>
+        <v>3545.3539999999998</v>
       </c>
       <c r="I36">
-        <v>285.8</v>
+        <v>313.14499999999998</v>
       </c>
       <c r="J36">
-        <v>22231.8</v>
+        <v>824.60900000000004</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>6231.9</v>
+        <v>398.1</v>
       </c>
       <c r="O36">
-        <v>36021.599999999999</v>
+        <v>1495.0709999999999</v>
       </c>
       <c r="P36">
-        <v>23583.4</v>
+        <v>827.82600000000002</v>
       </c>
       <c r="Q36">
-        <v>-486.8</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="R36">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>70520.899999999994</v>
+        <v>2050.2829999999999</v>
       </c>
       <c r="U36">
-        <v>1187.9000000000001</v>
+        <v>339.35399999999998</v>
       </c>
       <c r="V36">
-        <v>1443</v>
+        <v>74</v>
       </c>
       <c r="W36">
-        <v>-244.4</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-2431.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>549.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA36">
-        <v>-37.9</v>
+        <v>71.099999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-4299.8999999999996</v>
+        <v>56.4</v>
       </c>
       <c r="D37">
-        <v>4079.7</v>
+        <v>645.20000000000005</v>
       </c>
       <c r="E37">
-        <v>2868.1</v>
+        <v>305</v>
       </c>
       <c r="F37">
-        <v>3498.5</v>
+        <v>297.2</v>
       </c>
       <c r="G37">
-        <v>6475.4</v>
+        <v>1458.4</v>
       </c>
       <c r="H37">
-        <v>101787.6</v>
+        <v>3677.9</v>
       </c>
       <c r="I37">
-        <v>349.8</v>
+        <v>148</v>
       </c>
       <c r="J37">
-        <v>22929.4</v>
+        <v>824.7</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>5727.9</v>
+        <v>482</v>
       </c>
       <c r="O37">
-        <v>36656.6</v>
+        <v>1569.3</v>
       </c>
       <c r="P37">
-        <v>23797.7</v>
+        <v>877.9</v>
       </c>
       <c r="Q37">
-        <v>-307.5</v>
+        <v>168.2</v>
       </c>
       <c r="R37">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S37">
-        <v>16900</v>
+        <v>5070</v>
       </c>
       <c r="T37">
-        <v>65131</v>
+        <v>2108.6</v>
       </c>
       <c r="U37">
-        <v>880.4</v>
+        <v>507.6</v>
       </c>
       <c r="V37">
-        <v>1498.6</v>
+        <v>176.4</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-757.8</v>
+        <v>49.9</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-957.3</v>
+        <v>-0.9</v>
       </c>
       <c r="AA37">
-        <v>-4299.8999999999996</v>
+        <v>56.4</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-2408</v>
+        <v>49.1</v>
       </c>
       <c r="D38">
-        <v>3597.1</v>
+        <v>667.4</v>
       </c>
       <c r="E38">
-        <v>2731.2</v>
+        <v>353.6</v>
       </c>
       <c r="F38">
-        <v>3120.4</v>
+        <v>278.7</v>
       </c>
       <c r="G38">
-        <v>6289.3</v>
+        <v>1563.8</v>
       </c>
       <c r="H38">
-        <v>98036.3</v>
+        <v>3750.9</v>
       </c>
       <c r="I38">
-        <v>356.7</v>
+        <v>338.4</v>
       </c>
       <c r="J38">
-        <v>19554.099999999999</v>
+        <v>250</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3877,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-159.4</v>
+        <v>-1.6</v>
       </c>
       <c r="N38">
-        <v>8849.2000000000007</v>
+        <v>1142.5999999999999</v>
       </c>
       <c r="O38">
-        <v>36476.699999999997</v>
+        <v>1587.3</v>
       </c>
       <c r="P38">
-        <v>24057.200000000001</v>
+        <v>876.4</v>
       </c>
       <c r="Q38">
-        <v>-91.9</v>
+        <v>51.4</v>
       </c>
       <c r="R38">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>61559.6</v>
+        <v>2163.6</v>
       </c>
       <c r="U38">
-        <v>788.5</v>
+        <v>559</v>
       </c>
       <c r="V38">
-        <v>1234</v>
+        <v>69.5</v>
       </c>
       <c r="W38">
-        <v>-246.1</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-1227</v>
+        <v>-0.2</v>
       </c>
       <c r="Y38">
-        <v>415.2</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>30.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AA38">
-        <v>-2408</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-1759</v>
+        <v>53</v>
       </c>
       <c r="D39">
-        <v>4090.1</v>
+        <v>677.8</v>
       </c>
       <c r="E39">
-        <v>3086.3</v>
+        <v>356.6</v>
       </c>
       <c r="F39">
-        <v>3464.1</v>
+        <v>284.7</v>
       </c>
       <c r="G39">
-        <v>8572.7999999999993</v>
+        <v>1688.5</v>
       </c>
       <c r="H39">
-        <v>95480.7</v>
+        <v>3850.4</v>
       </c>
       <c r="I39">
-        <v>518.5</v>
+        <v>382.1</v>
       </c>
       <c r="J39">
-        <v>19609.3</v>
+        <v>150</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>8303.7000000000007</v>
+        <v>1190.5999999999999</v>
       </c>
       <c r="O39">
-        <v>35784.6</v>
+        <v>1618.3</v>
       </c>
       <c r="P39">
-        <v>23241.5</v>
+        <v>876.4</v>
       </c>
       <c r="Q39">
-        <v>862.9</v>
+        <v>78.5</v>
       </c>
       <c r="R39">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>59696.1</v>
+        <v>2232.1</v>
       </c>
       <c r="U39">
-        <v>1651.4</v>
+        <v>637.5</v>
       </c>
       <c r="V39">
-        <v>1410.3</v>
+        <v>91.7</v>
       </c>
       <c r="W39">
-        <v>-242.7</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-1111.5999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="Y39">
-        <v>414.8</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>692.9</v>
+        <v>-1.3</v>
       </c>
       <c r="AA39">
-        <v>-1759</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-786.8</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>4050.7</v>
+        <v>662.1</v>
       </c>
       <c r="E40">
-        <v>3012.3</v>
+        <v>377.1</v>
       </c>
       <c r="F40">
-        <v>3413.8</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="G40">
-        <v>9593.6</v>
+        <v>1885.3</v>
       </c>
       <c r="H40">
-        <v>94408.9</v>
+        <v>4025.8</v>
       </c>
       <c r="I40">
-        <v>471.2</v>
+        <v>350.6</v>
       </c>
       <c r="J40">
-        <v>18786</v>
+        <v>997.4</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>9638.7000000000007</v>
+        <v>439.9</v>
       </c>
       <c r="O40">
-        <v>35910.699999999997</v>
+        <v>1715.2</v>
       </c>
       <c r="P40">
-        <v>23081</v>
+        <v>999</v>
       </c>
       <c r="Q40">
-        <v>-413.9</v>
+        <v>175.4</v>
       </c>
       <c r="R40">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>58498.2</v>
+        <v>2310.6</v>
       </c>
       <c r="U40">
-        <v>1237.5</v>
+        <v>812.9</v>
       </c>
       <c r="V40">
-        <v>2924.1</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="W40">
-        <v>-242.6</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-230</v>
+        <v>118.4</v>
       </c>
       <c r="Y40">
-        <v>437.4</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-2995.1</v>
+        <v>0.6</v>
       </c>
       <c r="AA40">
-        <v>-786.8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-317.2</v>
+        <v>56.9</v>
       </c>
       <c r="D41">
-        <v>4351</v>
+        <v>785.7</v>
       </c>
       <c r="E41">
-        <v>3192.3</v>
+        <v>517.4</v>
       </c>
       <c r="F41">
-        <v>3656.1</v>
+        <v>367.9</v>
       </c>
       <c r="G41">
-        <v>11126.7</v>
+        <v>1769.5</v>
       </c>
       <c r="H41">
-        <v>94699.1</v>
+        <v>5903.5</v>
       </c>
       <c r="I41">
-        <v>390.4</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="J41">
-        <v>18116.5</v>
+        <v>1150.2</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>11070.7</v>
+        <v>1047.9000000000001</v>
       </c>
       <c r="O41">
-        <v>36502.699999999997</v>
+        <v>2880.4</v>
       </c>
       <c r="P41">
-        <v>23219.5</v>
+        <v>1457.8</v>
       </c>
       <c r="Q41">
-        <v>1265.8</v>
+        <v>-611.5</v>
       </c>
       <c r="R41">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S41">
-        <v>17400</v>
+        <v>5830</v>
       </c>
       <c r="T41">
-        <v>58196.4</v>
+        <v>3023.1</v>
       </c>
       <c r="U41">
-        <v>2503.3000000000002</v>
+        <v>201.4</v>
       </c>
       <c r="V41">
-        <v>1670.3</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="W41">
-        <v>-243</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-197.5</v>
+        <v>228.4</v>
       </c>
       <c r="Y41">
-        <v>446.1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-97.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-317.2</v>
+        <v>56.9</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>69.8</v>
+      </c>
+      <c r="D42">
+        <v>856.5</v>
+      </c>
+      <c r="E42">
+        <v>543.79999999999995</v>
+      </c>
+      <c r="F42">
+        <v>351.8</v>
+      </c>
+      <c r="G42">
+        <v>1769.7</v>
+      </c>
+      <c r="H42">
+        <v>5890.2</v>
+      </c>
+      <c r="I42">
+        <v>532.1</v>
+      </c>
+      <c r="J42">
+        <v>1155.5</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-223.4</v>
+      </c>
+      <c r="N42">
+        <v>880.5</v>
+      </c>
+      <c r="O42">
+        <v>2796.8</v>
+      </c>
+      <c r="P42">
+        <v>1240.5</v>
+      </c>
+      <c r="Q42">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="R42">
+        <v>40268</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>3093.4</v>
+      </c>
+      <c r="U42">
+        <v>169.2</v>
+      </c>
+      <c r="V42">
+        <v>112.3</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-212.9</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>94.1</v>
+      </c>
+      <c r="AA42">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40359</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="D43">
+        <v>875.3</v>
+      </c>
+      <c r="E43">
+        <v>502.1</v>
+      </c>
+      <c r="F43">
+        <v>377.3</v>
+      </c>
+      <c r="G43">
+        <v>1757.1</v>
+      </c>
+      <c r="H43">
+        <v>5712.8</v>
+      </c>
+      <c r="I43">
+        <v>592.70000000000005</v>
+      </c>
+      <c r="J43">
+        <v>1158.5</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>754.2</v>
+      </c>
+      <c r="O43">
+        <v>2577.6</v>
+      </c>
+      <c r="P43">
+        <v>1243.5</v>
+      </c>
+      <c r="Q43">
+        <v>55.6</v>
+      </c>
+      <c r="R43">
+        <v>40359</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3135.2</v>
+      </c>
+      <c r="U43">
+        <v>224.8</v>
+      </c>
+      <c r="V43">
+        <v>73.8</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>9.5</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-13.6</v>
+      </c>
+      <c r="AA43">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40451</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>25.7</v>
+      </c>
+      <c r="D44">
+        <v>882.4</v>
+      </c>
+      <c r="E44">
+        <v>523.1</v>
+      </c>
+      <c r="F44">
+        <v>397.8</v>
+      </c>
+      <c r="G44">
+        <v>1764.2</v>
+      </c>
+      <c r="H44">
+        <v>5847.7</v>
+      </c>
+      <c r="I44">
+        <v>539.6</v>
+      </c>
+      <c r="J44">
+        <v>1162.0999999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>753.7</v>
+      </c>
+      <c r="O44">
+        <v>2628.1</v>
+      </c>
+      <c r="P44">
+        <v>1197.0999999999999</v>
+      </c>
+      <c r="Q44">
+        <v>30.8</v>
+      </c>
+      <c r="R44">
+        <v>40451</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3219.6</v>
+      </c>
+      <c r="U44">
+        <v>255.6</v>
+      </c>
+      <c r="V44">
+        <v>136.5</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-44.4</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>4.5</v>
+      </c>
+      <c r="AA44">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40543</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>18.3</v>
+      </c>
+      <c r="D45">
+        <v>952.7</v>
+      </c>
+      <c r="E45">
+        <v>560.9</v>
+      </c>
+      <c r="F45">
+        <v>471.8</v>
+      </c>
+      <c r="G45">
+        <v>1786.7</v>
+      </c>
+      <c r="H45">
+        <v>5686.6</v>
+      </c>
+      <c r="I45">
+        <v>215.2</v>
+      </c>
+      <c r="J45">
+        <v>1016.1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>808</v>
+      </c>
+      <c r="O45">
+        <v>2404</v>
+      </c>
+      <c r="P45">
+        <v>1016.1</v>
+      </c>
+      <c r="Q45">
+        <v>27.2</v>
+      </c>
+      <c r="R45">
+        <v>40543</v>
+      </c>
+      <c r="S45">
+        <v>6030</v>
+      </c>
+      <c r="T45">
+        <v>3282.6</v>
+      </c>
+      <c r="U45">
+        <v>282.8</v>
+      </c>
+      <c r="V45">
+        <v>248.4</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-163.5</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-29.3</v>
+      </c>
+      <c r="AA45">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>45.3</v>
+      </c>
+      <c r="D46">
+        <v>876.5</v>
+      </c>
+      <c r="E46">
+        <v>532.70000000000005</v>
+      </c>
+      <c r="F46">
+        <v>420.9</v>
+      </c>
+      <c r="G46">
+        <v>1936.8</v>
+      </c>
+      <c r="H46">
+        <v>5929.1</v>
+      </c>
+      <c r="I46">
+        <v>647.4</v>
+      </c>
+      <c r="J46">
+        <v>1020.3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>856.3</v>
+      </c>
+      <c r="O46">
+        <v>2558.6999999999998</v>
+      </c>
+      <c r="P46">
+        <v>1020.3</v>
+      </c>
+      <c r="Q46">
+        <v>221.7</v>
+      </c>
+      <c r="R46">
+        <v>40633</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>3370.4</v>
+      </c>
+      <c r="U46">
+        <v>504.5</v>
+      </c>
+      <c r="V46">
+        <v>232</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>11.2</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0.8</v>
+      </c>
+      <c r="AA46">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>52.7</v>
+      </c>
+      <c r="D47">
+        <v>1081.7</v>
+      </c>
+      <c r="E47">
+        <v>824.3</v>
+      </c>
+      <c r="F47">
+        <v>468.3</v>
+      </c>
+      <c r="G47">
+        <v>2005.4</v>
+      </c>
+      <c r="H47">
+        <v>6639.6</v>
+      </c>
+      <c r="I47">
+        <v>914.1</v>
+      </c>
+      <c r="J47">
+        <v>1024.5</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1366.5</v>
+      </c>
+      <c r="O47">
+        <v>3166.2</v>
+      </c>
+      <c r="P47">
+        <v>1274.5</v>
+      </c>
+      <c r="Q47">
+        <v>-279.39999999999998</v>
+      </c>
+      <c r="R47">
+        <v>40724</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3473.4</v>
+      </c>
+      <c r="U47">
+        <v>225.1</v>
+      </c>
+      <c r="V47">
+        <v>59.8</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>245.9</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>1.4</v>
+      </c>
+      <c r="AA47">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="D48">
+        <v>1081.5999999999999</v>
+      </c>
+      <c r="E48">
+        <v>700.5</v>
+      </c>
+      <c r="F48">
+        <v>478.4</v>
+      </c>
+      <c r="G48">
+        <v>1840.3</v>
+      </c>
+      <c r="H48">
+        <v>6363.5</v>
+      </c>
+      <c r="I48">
+        <v>794.7</v>
+      </c>
+      <c r="J48">
+        <v>1152.3</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1017.4</v>
+      </c>
+      <c r="O48">
+        <v>2875.7</v>
+      </c>
+      <c r="P48">
+        <v>1153.5999999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-61.8</v>
+      </c>
+      <c r="R48">
+        <v>40816</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3487.8</v>
+      </c>
+      <c r="U48">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="V48">
+        <v>118.4</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-117.2</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-0.9</v>
+      </c>
+      <c r="AA48">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>94.8</v>
+      </c>
+      <c r="D49">
+        <v>1544.6</v>
+      </c>
+      <c r="E49">
+        <v>1165.7</v>
+      </c>
+      <c r="F49">
+        <v>671.1</v>
+      </c>
+      <c r="G49">
+        <v>2569.6999999999998</v>
+      </c>
+      <c r="H49">
+        <v>6698.3</v>
+      </c>
+      <c r="I49">
+        <v>755.9</v>
+      </c>
+      <c r="J49">
+        <v>848.5</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1839.5</v>
+      </c>
+      <c r="O49">
+        <v>3135.8</v>
+      </c>
+      <c r="P49">
+        <v>1033</v>
+      </c>
+      <c r="Q49">
+        <v>46</v>
+      </c>
+      <c r="R49">
+        <v>40908</v>
+      </c>
+      <c r="S49">
+        <v>6686</v>
+      </c>
+      <c r="T49">
+        <v>3562.5</v>
+      </c>
+      <c r="U49">
+        <v>209.3</v>
+      </c>
+      <c r="V49">
+        <v>221.8</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-123.5</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="AA49">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>54.8</v>
+      </c>
+      <c r="D50">
+        <v>1524.3</v>
+      </c>
+      <c r="E50">
+        <v>1030.8</v>
+      </c>
+      <c r="F50">
+        <v>620</v>
+      </c>
+      <c r="G50">
+        <v>2408.6</v>
+      </c>
+      <c r="H50">
+        <v>6862.7</v>
+      </c>
+      <c r="I50">
+        <v>1085.8</v>
+      </c>
+      <c r="J50">
+        <v>1163.8</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-60</v>
+      </c>
+      <c r="N50">
+        <v>1578.6</v>
+      </c>
+      <c r="O50">
+        <v>3202.9</v>
+      </c>
+      <c r="P50">
+        <v>1352.8</v>
+      </c>
+      <c r="Q50">
+        <v>-40.6</v>
+      </c>
+      <c r="R50">
+        <v>40999</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>3659.8</v>
+      </c>
+      <c r="U50">
+        <v>168.7</v>
+      </c>
+      <c r="V50">
+        <v>100.4</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>2.5</v>
+      </c>
+      <c r="AA50">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-62.2</v>
+      </c>
+      <c r="D51">
+        <v>1355.2</v>
+      </c>
+      <c r="E51">
+        <v>876</v>
+      </c>
+      <c r="F51">
+        <v>601.20000000000005</v>
+      </c>
+      <c r="G51">
+        <v>2319.9</v>
+      </c>
+      <c r="H51">
+        <v>6527.1</v>
+      </c>
+      <c r="I51">
+        <v>893.4</v>
+      </c>
+      <c r="J51">
+        <v>1098.7</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1530.7</v>
+      </c>
+      <c r="O51">
+        <v>2966.9</v>
+      </c>
+      <c r="P51">
+        <v>1292.0999999999999</v>
+      </c>
+      <c r="Q51">
+        <v>48.9</v>
+      </c>
+      <c r="R51">
+        <v>41090</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3560.2</v>
+      </c>
+      <c r="U51">
+        <v>217.6</v>
+      </c>
+      <c r="V51">
+        <v>199.7</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-129.6</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>6.2</v>
+      </c>
+      <c r="AA51">
+        <v>-62.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>76.7</v>
+      </c>
+      <c r="D52">
+        <v>1285.2</v>
+      </c>
+      <c r="E52">
+        <v>924.8</v>
+      </c>
+      <c r="F52">
+        <v>561.1</v>
+      </c>
+      <c r="G52">
+        <v>2441.5</v>
+      </c>
+      <c r="H52">
+        <v>6566</v>
+      </c>
+      <c r="I52">
+        <v>898.9</v>
+      </c>
+      <c r="J52">
+        <v>1023.8</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1555.6</v>
+      </c>
+      <c r="O52">
+        <v>2876.1</v>
+      </c>
+      <c r="P52">
+        <v>1220.5999999999999</v>
+      </c>
+      <c r="Q52">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R52">
+        <v>41182</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3689.9</v>
+      </c>
+      <c r="U52">
+        <v>222</v>
+      </c>
+      <c r="V52">
+        <v>145.9</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-94.7</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-5.2</v>
+      </c>
+      <c r="AA52">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>28</v>
+      </c>
+      <c r="D53">
+        <v>1750.2</v>
+      </c>
+      <c r="E53">
+        <v>1330.9</v>
+      </c>
+      <c r="F53">
+        <v>796.1</v>
+      </c>
+      <c r="G53">
+        <v>3838.3</v>
+      </c>
+      <c r="H53">
+        <v>14114.8</v>
+      </c>
+      <c r="I53">
+        <v>598.6</v>
+      </c>
+      <c r="J53">
+        <v>6257.1</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2749.3</v>
+      </c>
+      <c r="O53">
+        <v>10258.4</v>
+      </c>
+      <c r="P53">
+        <v>6433.3</v>
+      </c>
+      <c r="Q53">
+        <v>97</v>
+      </c>
+      <c r="R53">
+        <v>41274</v>
+      </c>
+      <c r="S53">
+        <v>17700</v>
+      </c>
+      <c r="T53">
+        <v>3856.4</v>
+      </c>
+      <c r="U53">
+        <v>319</v>
+      </c>
+      <c r="V53">
+        <v>219.8</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>5147.8</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>50.2</v>
+      </c>
+      <c r="AA53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-102.8</v>
+      </c>
+      <c r="D54">
+        <v>1895.5</v>
+      </c>
+      <c r="E54">
+        <v>1275.5</v>
+      </c>
+      <c r="F54">
+        <v>902.4</v>
+      </c>
+      <c r="G54">
+        <v>3835.8</v>
+      </c>
+      <c r="H54">
+        <v>14173</v>
+      </c>
+      <c r="I54">
+        <v>1938.6</v>
+      </c>
+      <c r="J54">
+        <v>6243.2</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-97.1</v>
+      </c>
+      <c r="N54">
+        <v>2934.9</v>
+      </c>
+      <c r="O54">
+        <v>10550.7</v>
+      </c>
+      <c r="P54">
+        <v>6421.5</v>
+      </c>
+      <c r="Q54">
+        <v>9.4</v>
+      </c>
+      <c r="R54">
+        <v>41364</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>3622.3</v>
+      </c>
+      <c r="U54">
+        <v>328.4</v>
+      </c>
+      <c r="V54">
+        <v>218.6</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-42.5</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>-102.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>-564.79999999999995</v>
+      </c>
+      <c r="D55">
+        <v>1989.8</v>
+      </c>
+      <c r="E55">
+        <v>1372.3</v>
+      </c>
+      <c r="F55">
+        <v>939.5</v>
+      </c>
+      <c r="G55">
+        <v>3916</v>
+      </c>
+      <c r="H55">
+        <v>13560.6</v>
+      </c>
+      <c r="I55">
+        <v>1518.5</v>
+      </c>
+      <c r="J55">
+        <v>6173.9</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>2389</v>
+      </c>
+      <c r="O55">
+        <v>10019.6</v>
+      </c>
+      <c r="P55">
+        <v>6351.1</v>
+      </c>
+      <c r="Q55">
+        <v>-101.5</v>
+      </c>
+      <c r="R55">
+        <v>41455</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3541</v>
+      </c>
+      <c r="U55">
+        <v>226.9</v>
+      </c>
+      <c r="V55">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>-564.79999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="D56">
+        <v>2013</v>
+      </c>
+      <c r="E56">
+        <v>1366.2</v>
+      </c>
+      <c r="F56">
+        <v>929.8</v>
+      </c>
+      <c r="G56">
+        <v>4073.4</v>
+      </c>
+      <c r="H56">
+        <v>13644.1</v>
+      </c>
+      <c r="I56">
+        <v>1432.5</v>
+      </c>
+      <c r="J56">
+        <v>5683.3</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2807.2</v>
+      </c>
+      <c r="O56">
+        <v>9896.1</v>
+      </c>
+      <c r="P56">
+        <v>6310.4</v>
+      </c>
+      <c r="Q56">
+        <v>141.1</v>
+      </c>
+      <c r="R56">
+        <v>41547</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3748</v>
+      </c>
+      <c r="U56">
+        <v>368</v>
+      </c>
+      <c r="V56">
+        <v>270.8</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-94.7</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-148.4</v>
+      </c>
+      <c r="D57">
+        <v>2779.3</v>
+      </c>
+      <c r="E57">
+        <v>1404.9</v>
+      </c>
+      <c r="F57">
+        <v>1554.7</v>
+      </c>
+      <c r="G57">
+        <v>4434.7</v>
+      </c>
+      <c r="H57">
+        <v>22725.9</v>
+      </c>
+      <c r="I57">
+        <v>493.3</v>
+      </c>
+      <c r="J57">
+        <v>8517.4</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3294.9</v>
+      </c>
+      <c r="O57">
+        <v>13188.8</v>
+      </c>
+      <c r="P57">
+        <v>9052</v>
+      </c>
+      <c r="Q57">
+        <v>-39</v>
+      </c>
+      <c r="R57">
+        <v>41639</v>
+      </c>
+      <c r="S57">
+        <v>19200</v>
+      </c>
+      <c r="T57">
+        <v>9537.1</v>
+      </c>
+      <c r="U57">
+        <v>329</v>
+      </c>
+      <c r="V57">
+        <v>651.70000000000005</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-665.5</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AA57">
+        <v>-148.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>96.5</v>
+      </c>
+      <c r="D58">
+        <v>2655.1</v>
+      </c>
+      <c r="E58">
+        <v>1508.7</v>
+      </c>
+      <c r="F58">
+        <v>1487</v>
+      </c>
+      <c r="G58">
+        <v>4540.7</v>
+      </c>
+      <c r="H58">
+        <v>22403.9</v>
+      </c>
+      <c r="I58">
+        <v>594.70000000000005</v>
+      </c>
+      <c r="J58">
+        <v>8452.2000000000007</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-326.10000000000002</v>
+      </c>
+      <c r="N58">
+        <v>3002.1</v>
+      </c>
+      <c r="O58">
+        <v>12775.3</v>
+      </c>
+      <c r="P58">
+        <v>8720.5</v>
+      </c>
+      <c r="Q58">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R58">
+        <v>41729</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>9628.6</v>
+      </c>
+      <c r="U58">
+        <v>337.7</v>
+      </c>
+      <c r="V58">
+        <v>439.6</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-368</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>15</v>
+      </c>
+      <c r="AA58">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1567.7</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>8272.9</v>
+      </c>
+      <c r="H59">
+        <v>25789.4</v>
+      </c>
+      <c r="I59">
+        <v>588.79999999999995</v>
+      </c>
+      <c r="J59">
+        <v>10742.6</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>4183.3999999999996</v>
+      </c>
+      <c r="O59">
+        <v>16104.7</v>
+      </c>
+      <c r="P59">
+        <v>12331.4</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>41820</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>9684.7000000000007</v>
+      </c>
+      <c r="U59">
+        <v>4293.6000000000004</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>2150.8000000000002</v>
+      </c>
+      <c r="E60">
+        <v>2229.3000000000002</v>
+      </c>
+      <c r="F60">
+        <v>996.1</v>
+      </c>
+      <c r="G60">
+        <v>6252.3</v>
+      </c>
+      <c r="H60">
+        <v>53467.4</v>
+      </c>
+      <c r="I60">
+        <v>717.3</v>
+      </c>
+      <c r="J60">
+        <v>15093.8</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4481.3</v>
+      </c>
+      <c r="O60">
+        <v>24322.400000000001</v>
+      </c>
+      <c r="P60">
+        <v>15537.1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>41912</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>29145</v>
+      </c>
+      <c r="U60">
+        <v>339.4</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>-1042.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-732.9</v>
+      </c>
+      <c r="D61">
+        <v>2415.6</v>
+      </c>
+      <c r="E61">
+        <v>1112.3</v>
+      </c>
+      <c r="F61">
+        <v>2059.9</v>
+      </c>
+      <c r="G61">
+        <v>7110.6</v>
+      </c>
+      <c r="H61">
+        <v>52758</v>
+      </c>
+      <c r="I61">
+        <v>323.3</v>
+      </c>
+      <c r="J61">
+        <v>14837.7</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>5247.5</v>
+      </c>
+      <c r="O61">
+        <v>24422.5</v>
+      </c>
+      <c r="P61">
+        <v>15531.1</v>
+      </c>
+      <c r="Q61">
+        <v>-89.4</v>
+      </c>
+      <c r="R61">
+        <v>42004</v>
+      </c>
+      <c r="S61">
+        <v>21600</v>
+      </c>
+      <c r="T61">
+        <v>28335.5</v>
+      </c>
+      <c r="U61">
+        <v>250</v>
+      </c>
+      <c r="V61">
+        <v>811.6</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-158.69999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>452.7</v>
+      </c>
+      <c r="AA61">
+        <v>-732.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>-512</v>
+      </c>
+      <c r="D62">
+        <v>1983</v>
+      </c>
+      <c r="E62">
+        <v>3992.8</v>
+      </c>
+      <c r="F62">
+        <v>1530</v>
+      </c>
+      <c r="G62">
+        <v>11017.2</v>
+      </c>
+      <c r="H62">
+        <v>139460.70000000001</v>
+      </c>
+      <c r="I62">
+        <v>770.3</v>
+      </c>
+      <c r="J62">
+        <v>42700.5</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-2660</v>
+      </c>
+      <c r="N62">
+        <v>7655.5</v>
+      </c>
+      <c r="O62">
+        <v>68051.199999999997</v>
+      </c>
+      <c r="P62">
+        <v>44324.6</v>
+      </c>
+      <c r="Q62">
+        <v>1864.9</v>
+      </c>
+      <c r="R62">
+        <v>42094</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>71409.5</v>
+      </c>
+      <c r="U62">
+        <v>2114.9</v>
+      </c>
+      <c r="V62">
+        <v>525</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>35285.599999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-15</v>
+      </c>
+      <c r="AA62">
+        <v>-512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-243.1</v>
+      </c>
+      <c r="D63">
+        <v>3628.7</v>
+      </c>
+      <c r="E63">
+        <v>4420.1000000000004</v>
+      </c>
+      <c r="F63">
+        <v>3209.1</v>
+      </c>
+      <c r="G63">
+        <v>10486.9</v>
+      </c>
+      <c r="H63">
+        <v>138411.1</v>
+      </c>
+      <c r="I63">
+        <v>971.1</v>
+      </c>
+      <c r="J63">
+        <v>41319.4</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>7649.5</v>
+      </c>
+      <c r="O63">
+        <v>66336.600000000006</v>
+      </c>
+      <c r="P63">
+        <v>42870.3</v>
+      </c>
+      <c r="Q63">
+        <v>-597</v>
+      </c>
+      <c r="R63">
+        <v>42185</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>72074.5</v>
+      </c>
+      <c r="U63">
+        <v>1517.9</v>
+      </c>
+      <c r="V63">
+        <v>1401.3</v>
+      </c>
+      <c r="W63">
+        <v>-68.7</v>
+      </c>
+      <c r="X63">
+        <v>-1470.6</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>849.8</v>
+      </c>
+      <c r="AA63">
+        <v>-243.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>5301.2</v>
+      </c>
+      <c r="D64">
+        <v>3469.5</v>
+      </c>
+      <c r="E64">
+        <v>2143.1999999999998</v>
+      </c>
+      <c r="F64">
+        <v>3075.6</v>
+      </c>
+      <c r="G64">
+        <v>16658.7</v>
+      </c>
+      <c r="H64">
+        <v>142816.29999999999</v>
+      </c>
+      <c r="I64">
+        <v>565.9</v>
+      </c>
+      <c r="J64">
+        <v>40648.1</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>8133</v>
+      </c>
+      <c r="O64">
+        <v>65336.2</v>
+      </c>
+      <c r="P64">
+        <v>42683.5</v>
+      </c>
+      <c r="Q64">
+        <v>546</v>
+      </c>
+      <c r="R64">
+        <v>42277</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>77480.100000000006</v>
+      </c>
+      <c r="U64">
+        <v>2063.9</v>
+      </c>
+      <c r="V64">
+        <v>1048.2</v>
+      </c>
+      <c r="W64">
+        <v>-69.7</v>
+      </c>
+      <c r="X64">
+        <v>-248.4</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-6</v>
+      </c>
+      <c r="AA64">
+        <v>5301.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>-630.9</v>
+      </c>
+      <c r="D65">
+        <v>3606.9</v>
+      </c>
+      <c r="E65">
+        <v>2125.4</v>
+      </c>
+      <c r="F65">
+        <v>3198.5</v>
+      </c>
+      <c r="G65">
+        <v>8579.1</v>
+      </c>
+      <c r="H65">
+        <v>135583.29999999999</v>
+      </c>
+      <c r="I65">
+        <v>215.9</v>
+      </c>
+      <c r="J65">
+        <v>40133.9</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>8292</v>
+      </c>
+      <c r="O65">
+        <v>58994</v>
+      </c>
+      <c r="P65">
+        <v>42530.400000000001</v>
+      </c>
+      <c r="Q65">
+        <v>-967.9</v>
+      </c>
+      <c r="R65">
+        <v>42369</v>
+      </c>
+      <c r="S65">
+        <v>31200</v>
+      </c>
+      <c r="T65">
+        <v>76589.3</v>
+      </c>
+      <c r="U65">
+        <v>1096</v>
+      </c>
+      <c r="V65">
+        <v>1555.5</v>
+      </c>
+      <c r="W65">
+        <v>-69.7</v>
+      </c>
+      <c r="X65">
+        <v>-123.2</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>29.9</v>
+      </c>
+      <c r="AA65">
+        <v>-630.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>255.7</v>
+      </c>
+      <c r="D66">
+        <v>3399.3</v>
+      </c>
+      <c r="E66">
+        <v>2652.8</v>
+      </c>
+      <c r="F66">
+        <v>2979.1</v>
+      </c>
+      <c r="G66">
+        <v>10091.5</v>
+      </c>
+      <c r="H66">
+        <v>136073.70000000001</v>
+      </c>
+      <c r="I66">
+        <v>450</v>
+      </c>
+      <c r="J66">
+        <v>38551.800000000003</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-854.2</v>
+      </c>
+      <c r="N66">
+        <v>10195.5</v>
+      </c>
+      <c r="O66">
+        <v>58625</v>
+      </c>
+      <c r="P66">
+        <v>42567.5</v>
+      </c>
+      <c r="Q66">
+        <v>1164.8</v>
+      </c>
+      <c r="R66">
+        <v>42460</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>77448.7</v>
+      </c>
+      <c r="U66">
+        <v>2260.8000000000002</v>
+      </c>
+      <c r="V66">
+        <v>1253.0999999999999</v>
+      </c>
+      <c r="W66">
+        <v>-69.599999999999994</v>
+      </c>
+      <c r="X66">
+        <v>-39.700000000000003</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>19</v>
+      </c>
+      <c r="AA66">
+        <v>255.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-501.7</v>
+      </c>
+      <c r="D67">
+        <v>3684.8</v>
+      </c>
+      <c r="E67">
+        <v>2490.5</v>
+      </c>
+      <c r="F67">
+        <v>3242.5</v>
+      </c>
+      <c r="G67">
+        <v>8755.2000000000007</v>
+      </c>
+      <c r="H67">
+        <v>132619.1</v>
+      </c>
+      <c r="I67">
+        <v>436.7</v>
+      </c>
+      <c r="J67">
+        <v>37075.1</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>8867.4</v>
+      </c>
+      <c r="O67">
+        <v>55978.3</v>
+      </c>
+      <c r="P67">
+        <v>39581.699999999997</v>
+      </c>
+      <c r="Q67">
+        <v>-1771.3</v>
+      </c>
+      <c r="R67">
+        <v>42551</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>76640.800000000003</v>
+      </c>
+      <c r="U67">
+        <v>489.5</v>
+      </c>
+      <c r="V67">
+        <v>1379.8</v>
+      </c>
+      <c r="W67">
+        <v>-69.599999999999994</v>
+      </c>
+      <c r="X67">
+        <v>-3058.9</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>6.5</v>
+      </c>
+      <c r="AA67">
+        <v>-501.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>15220</v>
+      </c>
+      <c r="D68">
+        <v>3622.2</v>
+      </c>
+      <c r="E68">
+        <v>2398.5</v>
+      </c>
+      <c r="F68">
+        <v>3179.2</v>
+      </c>
+      <c r="G68">
+        <v>31723.9</v>
+      </c>
+      <c r="H68">
+        <v>143607.70000000001</v>
+      </c>
+      <c r="I68">
+        <v>296.5</v>
+      </c>
+      <c r="J68">
+        <v>31178.2</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>8025.5</v>
+      </c>
+      <c r="O68">
+        <v>53877.3</v>
+      </c>
+      <c r="P68">
+        <v>32770</v>
+      </c>
+      <c r="Q68">
+        <v>7065.2</v>
+      </c>
+      <c r="R68">
+        <v>42643</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>89730.4</v>
+      </c>
+      <c r="U68">
+        <v>7554.7</v>
+      </c>
+      <c r="V68">
+        <v>-1097.7</v>
+      </c>
+      <c r="W68">
+        <v>-69.599999999999994</v>
+      </c>
+      <c r="X68">
+        <v>-9589.5</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-15431</v>
+      </c>
+      <c r="AA68">
+        <v>15220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-0.6</v>
+      </c>
+      <c r="D69">
+        <v>3864.3</v>
+      </c>
+      <c r="E69">
+        <v>2531</v>
+      </c>
+      <c r="F69">
+        <v>3361.7</v>
+      </c>
+      <c r="G69">
+        <v>17857.900000000001</v>
+      </c>
+      <c r="H69">
+        <v>128986.3</v>
+      </c>
+      <c r="I69">
+        <v>224.9</v>
+      </c>
+      <c r="J69">
+        <v>29970.799999999999</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>7874.7</v>
+      </c>
+      <c r="O69">
+        <v>52785.8</v>
+      </c>
+      <c r="P69">
+        <v>32768.699999999997</v>
+      </c>
+      <c r="Q69">
+        <v>-5830.7</v>
+      </c>
+      <c r="R69">
+        <v>42735</v>
+      </c>
+      <c r="S69">
+        <v>16700</v>
+      </c>
+      <c r="T69">
+        <v>76200.5</v>
+      </c>
+      <c r="U69">
+        <v>1724</v>
+      </c>
+      <c r="V69">
+        <v>-89.5</v>
+      </c>
+      <c r="W69">
+        <v>-69.599999999999994</v>
+      </c>
+      <c r="X69">
+        <v>-12454.4</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>7433.6</v>
+      </c>
+      <c r="AA69">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-2565.1999999999998</v>
+      </c>
+      <c r="D70">
+        <v>3572.9</v>
+      </c>
+      <c r="E70">
+        <v>2542</v>
+      </c>
+      <c r="F70">
+        <v>3118.7</v>
+      </c>
+      <c r="G70">
+        <v>13700.7</v>
+      </c>
+      <c r="H70">
+        <v>126836.9</v>
+      </c>
+      <c r="I70">
+        <v>292.2</v>
+      </c>
+      <c r="J70">
+        <v>26223</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-1015.9</v>
+      </c>
+      <c r="N70">
+        <v>10391.6</v>
+      </c>
+      <c r="O70">
+        <v>51638.1</v>
+      </c>
+      <c r="P70">
+        <v>31749.4</v>
+      </c>
+      <c r="Q70">
+        <v>-631.1</v>
+      </c>
+      <c r="R70">
+        <v>42825</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>75198.8</v>
+      </c>
+      <c r="U70">
+        <v>1092.9000000000001</v>
+      </c>
+      <c r="V70">
+        <v>723.3</v>
+      </c>
+      <c r="W70">
+        <v>-305.8</v>
+      </c>
+      <c r="X70">
+        <v>-1374.9</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>3267.4</v>
+      </c>
+      <c r="AA70">
+        <v>-2565.1999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>-725.9</v>
+      </c>
+      <c r="D71">
+        <v>4007.4</v>
+      </c>
+      <c r="E71">
+        <v>2795.9</v>
+      </c>
+      <c r="F71">
+        <v>3560</v>
+      </c>
+      <c r="G71">
+        <v>10433.200000000001</v>
+      </c>
+      <c r="H71">
+        <v>124734.8</v>
+      </c>
+      <c r="I71">
+        <v>304</v>
+      </c>
+      <c r="J71">
+        <v>26443.3</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>8638.2999999999993</v>
+      </c>
+      <c r="O71">
+        <v>49502</v>
+      </c>
+      <c r="P71">
+        <v>30238.3</v>
+      </c>
+      <c r="Q71">
+        <v>-206</v>
+      </c>
+      <c r="R71">
+        <v>42916</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>75232.800000000003</v>
+      </c>
+      <c r="U71">
+        <v>886.9</v>
+      </c>
+      <c r="V71">
+        <v>1799.8</v>
+      </c>
+      <c r="W71">
+        <v>-306.10000000000002</v>
+      </c>
+      <c r="X71">
+        <v>-2396.8000000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>3142.2</v>
+      </c>
+      <c r="AA71">
+        <v>-725.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>-3955.7</v>
+      </c>
+      <c r="D72">
+        <v>4034.3</v>
+      </c>
+      <c r="E72">
+        <v>2808.6</v>
+      </c>
+      <c r="F72">
+        <v>3461.7</v>
+      </c>
+      <c r="G72">
+        <v>10112.799999999999</v>
+      </c>
+      <c r="H72">
+        <v>118992.8</v>
+      </c>
+      <c r="I72">
+        <v>284.8</v>
+      </c>
+      <c r="J72">
+        <v>26539.1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>8559.7999999999993</v>
+      </c>
+      <c r="O72">
+        <v>47819.3</v>
+      </c>
+      <c r="P72">
+        <v>30336.1</v>
+      </c>
+      <c r="Q72">
+        <v>725.8</v>
+      </c>
+      <c r="R72">
+        <v>43008</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>71173.5</v>
+      </c>
+      <c r="U72">
+        <v>1612.7</v>
+      </c>
+      <c r="V72">
+        <v>1472.4</v>
+      </c>
+      <c r="W72">
+        <v>-305.10000000000002</v>
+      </c>
+      <c r="X72">
+        <v>-271.89999999999998</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-369</v>
+      </c>
+      <c r="AA72">
+        <v>-3955.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>3121.3</v>
+      </c>
+      <c r="D73">
+        <v>4326.1000000000004</v>
+      </c>
+      <c r="E73">
+        <v>2899</v>
+      </c>
+      <c r="F73">
+        <v>3714.8</v>
+      </c>
+      <c r="G73">
+        <v>11376.7</v>
+      </c>
+      <c r="H73">
+        <v>118341.9</v>
+      </c>
+      <c r="I73">
+        <v>324.5</v>
+      </c>
+      <c r="J73">
+        <v>25843.5</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>9848.1</v>
+      </c>
+      <c r="O73">
+        <v>44504.800000000003</v>
+      </c>
+      <c r="P73">
+        <v>30075.3</v>
+      </c>
+      <c r="Q73">
+        <v>204.5</v>
+      </c>
+      <c r="R73">
+        <v>43100</v>
+      </c>
+      <c r="S73">
+        <v>17800</v>
+      </c>
+      <c r="T73">
+        <v>73837.100000000006</v>
+      </c>
+      <c r="U73">
+        <v>1817.2</v>
+      </c>
+      <c r="V73">
+        <v>2083.5</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-1085.5999999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-671.1</v>
+      </c>
+      <c r="AA73">
+        <v>3121.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-286.10000000000002</v>
+      </c>
+      <c r="D74">
+        <v>3672.1</v>
+      </c>
+      <c r="E74">
+        <v>2639.2</v>
+      </c>
+      <c r="F74">
+        <v>3166.9</v>
+      </c>
+      <c r="G74">
+        <v>6393.3</v>
+      </c>
+      <c r="H74">
+        <v>112021.3</v>
+      </c>
+      <c r="I74">
+        <v>304.39999999999998</v>
+      </c>
+      <c r="J74">
+        <v>25936.400000000001</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-4322.1000000000004</v>
+      </c>
+      <c r="N74">
+        <v>5816</v>
+      </c>
+      <c r="O74">
+        <v>39675.300000000003</v>
+      </c>
+      <c r="P74">
+        <v>26562.6</v>
+      </c>
+      <c r="Q74">
+        <v>-822.4</v>
+      </c>
+      <c r="R74">
+        <v>43190</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>72346</v>
+      </c>
+      <c r="U74">
+        <v>994.8</v>
+      </c>
+      <c r="V74">
+        <v>1458.3</v>
+      </c>
+      <c r="W74">
+        <v>-319.5</v>
+      </c>
+      <c r="X74">
+        <v>-5207.7</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>3433.6</v>
+      </c>
+      <c r="AA74">
+        <v>-286.10000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>-472.5</v>
+      </c>
+      <c r="D75">
+        <v>4124.2</v>
+      </c>
+      <c r="E75">
+        <v>2760.8</v>
+      </c>
+      <c r="F75">
+        <v>3524.3</v>
+      </c>
+      <c r="G75">
+        <v>6103.7</v>
+      </c>
+      <c r="H75">
+        <v>108858.8</v>
+      </c>
+      <c r="I75">
+        <v>285.8</v>
+      </c>
+      <c r="J75">
+        <v>24002</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>6125.3</v>
+      </c>
+      <c r="O75">
+        <v>37594.800000000003</v>
+      </c>
+      <c r="P75">
+        <v>25350.5</v>
+      </c>
+      <c r="Q75">
+        <v>679.9</v>
+      </c>
+      <c r="R75">
+        <v>43281</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>71264</v>
+      </c>
+      <c r="U75">
+        <v>1674.7</v>
+      </c>
+      <c r="V75">
+        <v>1240.2</v>
+      </c>
+      <c r="W75">
+        <v>-244.2</v>
+      </c>
+      <c r="X75">
+        <v>-1282.7</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>761.8</v>
+      </c>
+      <c r="AA75">
+        <v>-472.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>-37.9</v>
+      </c>
+      <c r="D76">
+        <v>3911.4</v>
+      </c>
+      <c r="E76">
+        <v>2826.9</v>
+      </c>
+      <c r="F76">
+        <v>3331.7</v>
+      </c>
+      <c r="G76">
+        <v>5740.2</v>
+      </c>
+      <c r="H76">
+        <v>106542.5</v>
+      </c>
+      <c r="I76">
+        <v>285.8</v>
+      </c>
+      <c r="J76">
+        <v>22231.8</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>6231.9</v>
+      </c>
+      <c r="O76">
+        <v>36021.599999999999</v>
+      </c>
+      <c r="P76">
+        <v>23583.4</v>
+      </c>
+      <c r="Q76">
+        <v>-486.8</v>
+      </c>
+      <c r="R76">
+        <v>43373</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>70520.899999999994</v>
+      </c>
+      <c r="U76">
+        <v>1187.9000000000001</v>
+      </c>
+      <c r="V76">
+        <v>1443</v>
+      </c>
+      <c r="W76">
+        <v>-244.4</v>
+      </c>
+      <c r="X76">
+        <v>-2431.9</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>549.5</v>
+      </c>
+      <c r="AA76">
+        <v>-37.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-4299.8999999999996</v>
+      </c>
+      <c r="D77">
+        <v>4079.7</v>
+      </c>
+      <c r="E77">
+        <v>2868.1</v>
+      </c>
+      <c r="F77">
+        <v>3498.5</v>
+      </c>
+      <c r="G77">
+        <v>6475.4</v>
+      </c>
+      <c r="H77">
+        <v>101787.6</v>
+      </c>
+      <c r="I77">
+        <v>349.8</v>
+      </c>
+      <c r="J77">
+        <v>22929.4</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>5727.9</v>
+      </c>
+      <c r="O77">
+        <v>36656.6</v>
+      </c>
+      <c r="P77">
+        <v>23797.7</v>
+      </c>
+      <c r="Q77">
+        <v>-307.5</v>
+      </c>
+      <c r="R77">
+        <v>43465</v>
+      </c>
+      <c r="S77">
+        <v>16900</v>
+      </c>
+      <c r="T77">
+        <v>65131</v>
+      </c>
+      <c r="U77">
+        <v>880.4</v>
+      </c>
+      <c r="V77">
+        <v>1498.6</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-757.8</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>-957.3</v>
+      </c>
+      <c r="AA77">
+        <v>-4299.8999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>-2408</v>
+      </c>
+      <c r="D78">
+        <v>3597.1</v>
+      </c>
+      <c r="E78">
+        <v>2731.2</v>
+      </c>
+      <c r="F78">
+        <v>3120.4</v>
+      </c>
+      <c r="G78">
+        <v>6289.3</v>
+      </c>
+      <c r="H78">
+        <v>98036.3</v>
+      </c>
+      <c r="I78">
+        <v>356.7</v>
+      </c>
+      <c r="J78">
+        <v>19554.099999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-159.4</v>
+      </c>
+      <c r="N78">
+        <v>8849.2000000000007</v>
+      </c>
+      <c r="O78">
+        <v>36476.699999999997</v>
+      </c>
+      <c r="P78">
+        <v>24057.200000000001</v>
+      </c>
+      <c r="Q78">
+        <v>-91.9</v>
+      </c>
+      <c r="R78">
+        <v>43555</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>61559.6</v>
+      </c>
+      <c r="U78">
+        <v>788.5</v>
+      </c>
+      <c r="V78">
+        <v>1234</v>
+      </c>
+      <c r="W78">
+        <v>-246.1</v>
+      </c>
+      <c r="X78">
+        <v>-1227</v>
+      </c>
+      <c r="Y78">
+        <v>415.2</v>
+      </c>
+      <c r="Z78">
+        <v>30.9</v>
+      </c>
+      <c r="AA78">
+        <v>-2408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-1759</v>
+      </c>
+      <c r="D79">
+        <v>4090.1</v>
+      </c>
+      <c r="E79">
+        <v>3086.3</v>
+      </c>
+      <c r="F79">
+        <v>3464.1</v>
+      </c>
+      <c r="G79">
+        <v>8572.7999999999993</v>
+      </c>
+      <c r="H79">
+        <v>95480.7</v>
+      </c>
+      <c r="I79">
+        <v>518.5</v>
+      </c>
+      <c r="J79">
+        <v>19609.3</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>8303.7000000000007</v>
+      </c>
+      <c r="O79">
+        <v>35784.6</v>
+      </c>
+      <c r="P79">
+        <v>23241.5</v>
+      </c>
+      <c r="Q79">
+        <v>862.9</v>
+      </c>
+      <c r="R79">
+        <v>43646</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>59696.1</v>
+      </c>
+      <c r="U79">
+        <v>1651.4</v>
+      </c>
+      <c r="V79">
+        <v>1410.3</v>
+      </c>
+      <c r="W79">
+        <v>-242.7</v>
+      </c>
+      <c r="X79">
+        <v>-1111.5999999999999</v>
+      </c>
+      <c r="Y79">
+        <v>414.8</v>
+      </c>
+      <c r="Z79">
+        <v>692.9</v>
+      </c>
+      <c r="AA79">
+        <v>-1759</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-786.8</v>
+      </c>
+      <c r="D80">
+        <v>4050.7</v>
+      </c>
+      <c r="E80">
+        <v>3012.3</v>
+      </c>
+      <c r="F80">
+        <v>3413.8</v>
+      </c>
+      <c r="G80">
+        <v>9593.6</v>
+      </c>
+      <c r="H80">
+        <v>94408.9</v>
+      </c>
+      <c r="I80">
+        <v>471.2</v>
+      </c>
+      <c r="J80">
+        <v>18786</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>9638.7000000000007</v>
+      </c>
+      <c r="O80">
+        <v>35910.699999999997</v>
+      </c>
+      <c r="P80">
+        <v>23081</v>
+      </c>
+      <c r="Q80">
+        <v>-413.9</v>
+      </c>
+      <c r="R80">
+        <v>43738</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>58498.2</v>
+      </c>
+      <c r="U80">
+        <v>1237.5</v>
+      </c>
+      <c r="V80">
+        <v>2924.1</v>
+      </c>
+      <c r="W80">
+        <v>-242.6</v>
+      </c>
+      <c r="X80">
+        <v>-230</v>
+      </c>
+      <c r="Y80">
+        <v>437.4</v>
+      </c>
+      <c r="Z80">
+        <v>-2995.1</v>
+      </c>
+      <c r="AA80">
+        <v>-786.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-317.2</v>
+      </c>
+      <c r="D81">
+        <v>4351</v>
+      </c>
+      <c r="E81">
+        <v>3192.3</v>
+      </c>
+      <c r="F81">
+        <v>3656.1</v>
+      </c>
+      <c r="G81">
+        <v>11126.7</v>
+      </c>
+      <c r="H81">
+        <v>94699.1</v>
+      </c>
+      <c r="I81">
+        <v>390.4</v>
+      </c>
+      <c r="J81">
+        <v>18116.5</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>11070.7</v>
+      </c>
+      <c r="O81">
+        <v>36502.699999999997</v>
+      </c>
+      <c r="P81">
+        <v>23219.5</v>
+      </c>
+      <c r="Q81">
+        <v>1265.8</v>
+      </c>
+      <c r="R81">
+        <v>43830</v>
+      </c>
+      <c r="S81">
+        <v>17400</v>
+      </c>
+      <c r="T81">
+        <v>58196.4</v>
+      </c>
+      <c r="U81">
+        <v>2503.3000000000002</v>
+      </c>
+      <c r="V81">
+        <v>1670.3</v>
+      </c>
+      <c r="W81">
+        <v>-243</v>
+      </c>
+      <c r="X81">
+        <v>-197.5</v>
+      </c>
+      <c r="Y81">
+        <v>446.1</v>
+      </c>
+      <c r="Z81">
+        <v>-97.1</v>
+      </c>
+      <c r="AA81">
+        <v>-317.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>378</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>3604.4</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>2800.6</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>3008.4</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>7474.1</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>88426.2</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>402</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>17599</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-3031.8</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>7433.4</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>30404.7</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>20107.8</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-1503.8</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>43921</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>58021.5</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>999.5</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>116.5</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-243.5</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-3268.4</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>438.3</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>1795</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>378</v>
       </c>
     </row>
